--- a/Data_Sets/nfl_offense_ranking.xlsx
+++ b/Data_Sets/nfl_offense_ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynnpowell/Documents/DS_Projects/NFL_Analysis/Data_Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887FF2EB-A08C-2C4D-B2BD-3C071F7B8565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10427FA7-74AE-B141-A508-20AB79C7FED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48000" yWindow="1400" windowWidth="17400" windowHeight="16940" xr2:uid="{893A2313-FE9A-2142-B81F-A80A54F37F82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68A2A3-0BB3-8F45-8BF1-C061A256A577}">
-  <dimension ref="A1:L321"/>
+  <dimension ref="A1:L513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G294" sqref="G294"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12754,6 +12754,7302 @@
       </c>
       <c r="L321" s="2">
         <v>15.6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
+      <c r="A322">
+        <v>2011</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D322" s="2">
+        <v>467.1</v>
+      </c>
+      <c r="E322" s="2">
+        <v>132.9</v>
+      </c>
+      <c r="F322" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G322" s="2">
+        <v>334.2</v>
+      </c>
+      <c r="H322" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="I322" s="2">
+        <v>24</v>
+      </c>
+      <c r="J322" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="K322" s="4">
+        <v>1.3319444444444444</v>
+      </c>
+      <c r="L322" s="2">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
+      <c r="A323">
+        <v>2011</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" s="2">
+        <v>428.2</v>
+      </c>
+      <c r="E323" s="2">
+        <v>110.2</v>
+      </c>
+      <c r="F323" s="2">
+        <v>4</v>
+      </c>
+      <c r="G323" s="2">
+        <v>318</v>
+      </c>
+      <c r="H323" s="2">
+        <v>105.7</v>
+      </c>
+      <c r="I323" s="2">
+        <v>32</v>
+      </c>
+      <c r="J323" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="K323" s="4">
+        <v>1.1993055555555556</v>
+      </c>
+      <c r="L323" s="2">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
+      <c r="A324">
+        <v>2011</v>
+      </c>
+      <c r="B324" s="2">
+        <v>3</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" s="2">
+        <v>405.1</v>
+      </c>
+      <c r="E324" s="2">
+        <v>97.4</v>
+      </c>
+      <c r="F324" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G324" s="2">
+        <v>307.8</v>
+      </c>
+      <c r="H324" s="2">
+        <v>122.6</v>
+      </c>
+      <c r="I324" s="2">
+        <v>41</v>
+      </c>
+      <c r="J324" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="K324" s="4">
+        <v>1.2701388888888889</v>
+      </c>
+      <c r="L324" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
+      <c r="A325">
+        <v>2011</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" s="2">
+        <v>399.1</v>
+      </c>
+      <c r="E325" s="2">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="F325" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G325" s="2">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="H325" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="I325" s="2">
+        <v>33</v>
+      </c>
+      <c r="J325" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="K325" s="4">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="L325" s="2">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
+      <c r="A326">
+        <v>2011</v>
+      </c>
+      <c r="B326" s="2">
+        <v>5</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D326" s="2">
+        <v>396.1</v>
+      </c>
+      <c r="E326" s="2">
+        <v>95.2</v>
+      </c>
+      <c r="F326" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G326" s="2">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="H326" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="I326" s="2">
+        <v>36</v>
+      </c>
+      <c r="J326" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K326" s="4">
+        <v>1.2562499999999999</v>
+      </c>
+      <c r="L326" s="2">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
+      <c r="A327">
+        <v>2011</v>
+      </c>
+      <c r="B327" s="2">
+        <v>6</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D327" s="2">
+        <v>393.1</v>
+      </c>
+      <c r="E327" s="2">
+        <v>116.5</v>
+      </c>
+      <c r="F327" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G327" s="2">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="H327" s="2">
+        <v>88.7</v>
+      </c>
+      <c r="I327" s="2">
+        <v>30</v>
+      </c>
+      <c r="J327" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="K327" s="4">
+        <v>1.3513888888888888</v>
+      </c>
+      <c r="L327" s="2">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
+      <c r="A328">
+        <v>2011</v>
+      </c>
+      <c r="B328" s="2">
+        <v>7</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D328" s="2">
+        <v>389.6</v>
+      </c>
+      <c r="E328" s="2">
+        <v>150.5</v>
+      </c>
+      <c r="F328" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G328" s="2">
+        <v>239.1</v>
+      </c>
+      <c r="H328" s="2">
+        <v>84.8</v>
+      </c>
+      <c r="I328" s="2">
+        <v>36</v>
+      </c>
+      <c r="J328" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K328" s="4">
+        <v>1.2604166666666667</v>
+      </c>
+      <c r="L328" s="2">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
+      <c r="A329">
+        <v>2011</v>
+      </c>
+      <c r="B329" s="2">
+        <v>8</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D329" s="2">
+        <v>385.1</v>
+      </c>
+      <c r="E329" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="F329" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G329" s="2">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="H329" s="2">
+        <v>92.9</v>
+      </c>
+      <c r="I329" s="2">
+        <v>28</v>
+      </c>
+      <c r="J329" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K329" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L329" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
+      <c r="A330">
+        <v>2011</v>
+      </c>
+      <c r="B330" s="2">
+        <v>9</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D330" s="2">
+        <v>379.5</v>
+      </c>
+      <c r="E330" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="F330" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G330" s="2">
+        <v>247.6</v>
+      </c>
+      <c r="H330" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="I330" s="2">
+        <v>25</v>
+      </c>
+      <c r="J330" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K330" s="4">
+        <v>1.2465277777777779</v>
+      </c>
+      <c r="L330" s="2">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
+      <c r="A331">
+        <v>2011</v>
+      </c>
+      <c r="B331" s="2">
+        <v>10</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D331" s="2">
+        <v>376.6</v>
+      </c>
+      <c r="E331" s="2">
+        <v>114.6</v>
+      </c>
+      <c r="F331" s="2">
+        <v>4</v>
+      </c>
+      <c r="G331" s="2">
+        <v>262</v>
+      </c>
+      <c r="H331" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="I331" s="2">
+        <v>26</v>
+      </c>
+      <c r="J331" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K331" s="4">
+        <v>1.3458333333333332</v>
+      </c>
+      <c r="L331" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
+      <c r="A332">
+        <v>2011</v>
+      </c>
+      <c r="B332" s="2">
+        <v>11</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="2">
+        <v>375.5</v>
+      </c>
+      <c r="E332" s="2">
+        <v>112.9</v>
+      </c>
+      <c r="F332" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G332" s="2">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="H332" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="I332" s="2">
+        <v>39</v>
+      </c>
+      <c r="J332" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="K332" s="4">
+        <v>1.3083333333333333</v>
+      </c>
+      <c r="L332" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
+      <c r="A333">
+        <v>2011</v>
+      </c>
+      <c r="B333" s="2">
+        <v>12</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D333" s="2">
+        <v>372.3</v>
+      </c>
+      <c r="E333" s="2">
+        <v>118.9</v>
+      </c>
+      <c r="F333" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G333" s="2">
+        <v>253.4</v>
+      </c>
+      <c r="H333" s="2">
+        <v>89.7</v>
+      </c>
+      <c r="I333" s="2">
+        <v>42</v>
+      </c>
+      <c r="J333" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="K333" s="4">
+        <v>1.35625</v>
+      </c>
+      <c r="L333" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
+      <c r="A334">
+        <v>2011</v>
+      </c>
+      <c r="B334" s="2">
+        <v>13</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D334" s="2">
+        <v>372.1</v>
+      </c>
+      <c r="E334" s="2">
+        <v>153</v>
+      </c>
+      <c r="F334" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G334" s="2">
+        <v>219.1</v>
+      </c>
+      <c r="H334" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="I334" s="2">
+        <v>33</v>
+      </c>
+      <c r="J334" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K334" s="4">
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="L334" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
+      <c r="A335">
+        <v>2011</v>
+      </c>
+      <c r="B335" s="2">
+        <v>14</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" s="2">
+        <v>351.6</v>
+      </c>
+      <c r="E335" s="2">
+        <v>120.1</v>
+      </c>
+      <c r="F335" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G335" s="2">
+        <v>231.6</v>
+      </c>
+      <c r="H335" s="2">
+        <v>77</v>
+      </c>
+      <c r="I335" s="2">
+        <v>23</v>
+      </c>
+      <c r="J335" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="K335" s="4">
+        <v>1.2569444444444444</v>
+      </c>
+      <c r="L335" s="2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
+      <c r="A336">
+        <v>2011</v>
+      </c>
+      <c r="B336" s="2">
+        <v>15</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" s="2">
+        <v>338.7</v>
+      </c>
+      <c r="E336" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F336" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G336" s="2">
+        <v>213.9</v>
+      </c>
+      <c r="H336" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="I336" s="2">
+        <v>33</v>
+      </c>
+      <c r="J336" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="K336" s="4">
+        <v>1.2743055555555556</v>
+      </c>
+      <c r="L336" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
+      <c r="A337">
+        <v>2011</v>
+      </c>
+      <c r="B337" s="2">
+        <v>16</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D337" s="2">
+        <v>336.7</v>
+      </c>
+      <c r="E337" s="2">
+        <v>100.9</v>
+      </c>
+      <c r="F337" s="2">
+        <v>4</v>
+      </c>
+      <c r="G337" s="2">
+        <v>235.8</v>
+      </c>
+      <c r="H337" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="I337" s="2">
+        <v>40</v>
+      </c>
+      <c r="J337" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K337" s="4">
+        <v>1.2680555555555555</v>
+      </c>
+      <c r="L337" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
+      <c r="A338">
+        <v>2011</v>
+      </c>
+      <c r="B338" s="2">
+        <v>17</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D338" s="2">
+        <v>335.1</v>
+      </c>
+      <c r="E338" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="F338" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G338" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="H338" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="I338" s="2">
+        <v>24</v>
+      </c>
+      <c r="J338" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K338" s="4">
+        <v>1.1624999999999999</v>
+      </c>
+      <c r="L338" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
+      <c r="A339">
+        <v>2011</v>
+      </c>
+      <c r="B339" s="2">
+        <v>18</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="2">
+        <v>329.7</v>
+      </c>
+      <c r="E339" s="2">
+        <v>144.9</v>
+      </c>
+      <c r="F339" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G339" s="2">
+        <v>184.8</v>
+      </c>
+      <c r="H339" s="2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I339" s="2">
+        <v>49</v>
+      </c>
+      <c r="J339" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="K339" s="4">
+        <v>1.1958333333333333</v>
+      </c>
+      <c r="L339" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
+      <c r="A340">
+        <v>2011</v>
+      </c>
+      <c r="B340" s="2">
+        <v>19</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D340" s="2">
+        <v>324.5</v>
+      </c>
+      <c r="E340" s="2">
+        <v>101.6</v>
+      </c>
+      <c r="F340" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G340" s="2">
+        <v>222.9</v>
+      </c>
+      <c r="H340" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I340" s="2">
+        <v>54</v>
+      </c>
+      <c r="J340" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K340" s="4">
+        <v>1.1965277777777776</v>
+      </c>
+      <c r="L340" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
+      <c r="A341">
+        <v>2011</v>
+      </c>
+      <c r="B341" s="2">
+        <v>20</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D341" s="2">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="E341" s="2">
+        <v>111.1</v>
+      </c>
+      <c r="F341" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G341" s="2">
+        <v>208.8</v>
+      </c>
+      <c r="H341" s="2">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I341" s="2">
+        <v>25</v>
+      </c>
+      <c r="J341" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="K341" s="4">
+        <v>1.2625</v>
+      </c>
+      <c r="L341" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
+      <c r="A342">
+        <v>2011</v>
+      </c>
+      <c r="B342" s="2">
+        <v>21</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="E342" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="F342" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G342" s="2">
+        <v>228.1</v>
+      </c>
+      <c r="H342" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I342" s="2">
+        <v>32</v>
+      </c>
+      <c r="J342" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="K342" s="4">
+        <v>1.2090277777777778</v>
+      </c>
+      <c r="L342" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
+      <c r="A343">
+        <v>2011</v>
+      </c>
+      <c r="B343" s="2">
+        <v>22</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D343" s="2">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="E343" s="2">
+        <v>124.2</v>
+      </c>
+      <c r="F343" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G343" s="2">
+        <v>193.2</v>
+      </c>
+      <c r="H343" s="2">
+        <v>84.9</v>
+      </c>
+      <c r="I343" s="2">
+        <v>52</v>
+      </c>
+      <c r="J343" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K343" s="4">
+        <v>1.2756944444444445</v>
+      </c>
+      <c r="L343" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
+      <c r="A344">
+        <v>2011</v>
+      </c>
+      <c r="B344" s="2">
+        <v>23</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D344" s="2">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="E344" s="2">
+        <v>164.5</v>
+      </c>
+      <c r="F344" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G344" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="H344" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="I344" s="2">
+        <v>42</v>
+      </c>
+      <c r="J344" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="K344" s="4">
+        <v>1.2375</v>
+      </c>
+      <c r="L344" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
+      <c r="A345">
+        <v>2011</v>
+      </c>
+      <c r="B345" s="2">
+        <v>24</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D345" s="2">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="E345" s="2">
+        <v>125.9</v>
+      </c>
+      <c r="F345" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G345" s="2">
+        <v>188.2</v>
+      </c>
+      <c r="H345" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="I345" s="2">
+        <v>49</v>
+      </c>
+      <c r="J345" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="K345" s="4">
+        <v>1.2673611111111112</v>
+      </c>
+      <c r="L345" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
+      <c r="A346">
+        <v>2011</v>
+      </c>
+      <c r="B346" s="2">
+        <v>25</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D346" s="2">
+        <v>311.8</v>
+      </c>
+      <c r="E346" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="F346" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G346" s="2">
+        <v>206.1</v>
+      </c>
+      <c r="H346" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I346" s="2">
+        <v>40</v>
+      </c>
+      <c r="J346" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K346" s="4">
+        <v>1.2840277777777778</v>
+      </c>
+      <c r="L346" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
+      <c r="A347">
+        <v>2011</v>
+      </c>
+      <c r="B347" s="2">
+        <v>26</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D347" s="2">
+        <v>310.89999999999998</v>
+      </c>
+      <c r="E347" s="2">
+        <v>127.8</v>
+      </c>
+      <c r="F347" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G347" s="2">
+        <v>183.1</v>
+      </c>
+      <c r="H347" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="I347" s="2">
+        <v>44</v>
+      </c>
+      <c r="J347" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="K347" s="4">
+        <v>1.3381944444444445</v>
+      </c>
+      <c r="L347" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
+      <c r="A348">
+        <v>2011</v>
+      </c>
+      <c r="B348" s="2">
+        <v>27</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="2">
+        <v>310.8</v>
+      </c>
+      <c r="E348" s="2">
+        <v>118.3</v>
+      </c>
+      <c r="F348" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G348" s="2">
+        <v>192.5</v>
+      </c>
+      <c r="H348" s="2">
+        <v>73</v>
+      </c>
+      <c r="I348" s="2">
+        <v>34</v>
+      </c>
+      <c r="J348" s="2">
+        <v>36</v>
+      </c>
+      <c r="K348" s="4">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="L348" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
+      <c r="A349">
+        <v>2011</v>
+      </c>
+      <c r="B349" s="2">
+        <v>28</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D349" s="2">
+        <v>303.8</v>
+      </c>
+      <c r="E349" s="2">
+        <v>109.8</v>
+      </c>
+      <c r="F349" s="2">
+        <v>4</v>
+      </c>
+      <c r="G349" s="2">
+        <v>194.1</v>
+      </c>
+      <c r="H349" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I349" s="2">
+        <v>50</v>
+      </c>
+      <c r="J349" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K349" s="4">
+        <v>1.1819444444444445</v>
+      </c>
+      <c r="L349" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
+      <c r="A350">
+        <v>2011</v>
+      </c>
+      <c r="B350" s="2">
+        <v>29</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D350" s="2">
+        <v>288.8</v>
+      </c>
+      <c r="E350" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="F350" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G350" s="2">
+        <v>193.1</v>
+      </c>
+      <c r="H350" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="I350" s="2">
+        <v>39</v>
+      </c>
+      <c r="J350" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K350" s="4">
+        <v>1.2180555555555557</v>
+      </c>
+      <c r="L350" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
+      <c r="A351">
+        <v>2011</v>
+      </c>
+      <c r="B351" s="2">
+        <v>30</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" s="2">
+        <v>286.8</v>
+      </c>
+      <c r="E351" s="2">
+        <v>99.6</v>
+      </c>
+      <c r="F351" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G351" s="2">
+        <v>187.2</v>
+      </c>
+      <c r="H351" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="I351" s="2">
+        <v>35</v>
+      </c>
+      <c r="J351" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="K351" s="4">
+        <v>1.0923611111111111</v>
+      </c>
+      <c r="L351" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
+      <c r="A352">
+        <v>2011</v>
+      </c>
+      <c r="B352" s="2">
+        <v>31</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D352" s="2">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="E352" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="F352" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G352" s="2">
+        <v>179.4</v>
+      </c>
+      <c r="H352" s="2">
+        <v>69</v>
+      </c>
+      <c r="I352" s="2">
+        <v>55</v>
+      </c>
+      <c r="J352" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="K352" s="4">
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="L352" s="2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
+      <c r="A353">
+        <v>2011</v>
+      </c>
+      <c r="B353" s="2">
+        <v>32</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D353" s="2">
+        <v>259.3</v>
+      </c>
+      <c r="E353" s="2">
+        <v>123.1</v>
+      </c>
+      <c r="F353" s="2">
+        <v>4</v>
+      </c>
+      <c r="G353" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="H353" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="I353" s="2">
+        <v>44</v>
+      </c>
+      <c r="J353" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="K353" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L353" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354">
+        <v>2010</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D354" s="2">
+        <v>395.6</v>
+      </c>
+      <c r="E354" s="2">
+        <v>113.1</v>
+      </c>
+      <c r="F354" s="2">
+        <v>4</v>
+      </c>
+      <c r="G354" s="2">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="H354" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="I354" s="2">
+        <v>38</v>
+      </c>
+      <c r="J354" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="K354" s="4">
+        <v>1.3763888888888889</v>
+      </c>
+      <c r="L354" s="2">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355">
+        <v>2010</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D355" s="2">
+        <v>389.4</v>
+      </c>
+      <c r="E355" s="2">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F355" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G355" s="2">
+        <v>244.1</v>
+      </c>
+      <c r="H355" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="I355" s="2">
+        <v>49</v>
+      </c>
+      <c r="J355" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K355" s="4">
+        <v>1.3013888888888889</v>
+      </c>
+      <c r="L355" s="2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356">
+        <v>2010</v>
+      </c>
+      <c r="B356" s="2">
+        <v>3</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D356" s="2">
+        <v>387.6</v>
+      </c>
+      <c r="E356" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="F356" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G356" s="2">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="H356" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="I356" s="2">
+        <v>32</v>
+      </c>
+      <c r="J356" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="K356" s="4">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="L356" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357">
+        <v>2010</v>
+      </c>
+      <c r="B357" s="2">
+        <v>4</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" s="2">
+        <v>380.8</v>
+      </c>
+      <c r="E357" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="F357" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G357" s="2">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="H357" s="2">
+        <v>91.9</v>
+      </c>
+      <c r="I357" s="2">
+        <v>16</v>
+      </c>
+      <c r="J357" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="K357" s="4">
+        <v>1.2458333333333333</v>
+      </c>
+      <c r="L357" s="2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
+      <c r="A358">
+        <v>2010</v>
+      </c>
+      <c r="B358" s="2">
+        <v>5</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D358" s="2">
+        <v>380.3</v>
+      </c>
+      <c r="E358" s="2">
+        <v>137.5</v>
+      </c>
+      <c r="F358" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G358" s="2">
+        <v>242.8</v>
+      </c>
+      <c r="H358" s="2">
+        <v>85.3</v>
+      </c>
+      <c r="I358" s="2">
+        <v>16</v>
+      </c>
+      <c r="J358" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K358" s="4">
+        <v>1.3555555555555554</v>
+      </c>
+      <c r="L358" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
+      <c r="A359">
+        <v>2010</v>
+      </c>
+      <c r="B359" s="2">
+        <v>6</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D359" s="2">
+        <v>372.5</v>
+      </c>
+      <c r="E359" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="F359" s="2">
+        <v>4</v>
+      </c>
+      <c r="G359" s="2">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="H359" s="2">
+        <v>90.8</v>
+      </c>
+      <c r="I359" s="2">
+        <v>26</v>
+      </c>
+      <c r="J359" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="K359" s="4">
+        <v>1.3368055555555556</v>
+      </c>
+      <c r="L359" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
+      <c r="A360">
+        <v>2010</v>
+      </c>
+      <c r="B360" s="2">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" s="2">
+        <v>364.1</v>
+      </c>
+      <c r="E360" s="2">
+        <v>111.6</v>
+      </c>
+      <c r="F360" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G360" s="2">
+        <v>252.4</v>
+      </c>
+      <c r="H360" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="I360" s="2">
+        <v>32</v>
+      </c>
+      <c r="J360" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K360" s="4">
+        <v>1.3083333333333333</v>
+      </c>
+      <c r="L360" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
+      <c r="A361">
+        <v>2010</v>
+      </c>
+      <c r="B361" s="2">
+        <v>8</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="2">
+        <v>363.8</v>
+      </c>
+      <c r="E361" s="2">
+        <v>123.3</v>
+      </c>
+      <c r="F361" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G361" s="2">
+        <v>240.4</v>
+      </c>
+      <c r="H361" s="2">
+        <v>109.8</v>
+      </c>
+      <c r="I361" s="2">
+        <v>25</v>
+      </c>
+      <c r="J361" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="K361" s="4">
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="L361" s="2">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
+      <c r="A362">
+        <v>2010</v>
+      </c>
+      <c r="B362" s="2">
+        <v>9</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="2">
+        <v>358.1</v>
+      </c>
+      <c r="E362" s="2">
+        <v>100.4</v>
+      </c>
+      <c r="F362" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G362" s="2">
+        <v>257.8</v>
+      </c>
+      <c r="H362" s="2">
+        <v>98.9</v>
+      </c>
+      <c r="I362" s="2">
+        <v>38</v>
+      </c>
+      <c r="J362" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="K362" s="4">
+        <v>1.3340277777777778</v>
+      </c>
+      <c r="L362" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
+      <c r="A363">
+        <v>2010</v>
+      </c>
+      <c r="B363" s="2">
+        <v>10</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D363" s="2">
+        <v>354.6</v>
+      </c>
+      <c r="E363" s="2">
+        <v>155.9</v>
+      </c>
+      <c r="F363" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G363" s="2">
+        <v>198.8</v>
+      </c>
+      <c r="H363" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="I363" s="2">
+        <v>44</v>
+      </c>
+      <c r="J363" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="K363" s="4">
+        <v>1.33125</v>
+      </c>
+      <c r="L363" s="2">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
+      <c r="A364">
+        <v>2010</v>
+      </c>
+      <c r="B364" s="2">
+        <v>11</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D364" s="2">
+        <v>351.6</v>
+      </c>
+      <c r="E364" s="2">
+        <v>148.4</v>
+      </c>
+      <c r="F364" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G364" s="2">
+        <v>203.2</v>
+      </c>
+      <c r="H364" s="2">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="I364" s="2">
+        <v>28</v>
+      </c>
+      <c r="J364" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="K364" s="4">
+        <v>1.3590277777777777</v>
+      </c>
+      <c r="L364" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365">
+        <v>2010</v>
+      </c>
+      <c r="B365" s="2">
+        <v>12</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D365" s="2">
+        <v>350.8</v>
+      </c>
+      <c r="E365" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="F365" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G365" s="2">
+        <v>254.3</v>
+      </c>
+      <c r="H365" s="2">
+        <v>87</v>
+      </c>
+      <c r="I365" s="2">
+        <v>40</v>
+      </c>
+      <c r="J365" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="K365" s="4">
+        <v>1.1729166666666666</v>
+      </c>
+      <c r="L365" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366">
+        <v>2010</v>
+      </c>
+      <c r="B366" s="2">
+        <v>13</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="2">
+        <v>349.7</v>
+      </c>
+      <c r="E366" s="2">
+        <v>164.2</v>
+      </c>
+      <c r="F366" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G366" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="H366" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="I366" s="2">
+        <v>32</v>
+      </c>
+      <c r="J366" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K366" s="4">
+        <v>1.3180555555555555</v>
+      </c>
+      <c r="L366" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
+      <c r="A367">
+        <v>2010</v>
+      </c>
+      <c r="B367" s="2">
+        <v>14</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D367" s="2">
+        <v>345.2</v>
+      </c>
+      <c r="E367" s="2">
+        <v>120.2</v>
+      </c>
+      <c r="F367" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G367" s="2">
+        <v>225</v>
+      </c>
+      <c r="H367" s="2">
+        <v>95.2</v>
+      </c>
+      <c r="I367" s="2">
+        <v>43</v>
+      </c>
+      <c r="J367" s="2">
+        <v>43.1</v>
+      </c>
+      <c r="K367" s="4">
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="L367" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368">
+        <v>2010</v>
+      </c>
+      <c r="B368" s="2">
+        <v>15</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D368" s="2">
+        <v>341.4</v>
+      </c>
+      <c r="E368" s="2">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="F368" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G368" s="2">
+        <v>191.7</v>
+      </c>
+      <c r="H368" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I368" s="2">
+        <v>37</v>
+      </c>
+      <c r="J368" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="K368" s="4">
+        <v>1.325</v>
+      </c>
+      <c r="L368" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369">
+        <v>2010</v>
+      </c>
+      <c r="B369" s="2">
+        <v>16</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D369" s="2">
+        <v>341.1</v>
+      </c>
+      <c r="E369" s="2">
+        <v>118.2</v>
+      </c>
+      <c r="F369" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G369" s="2">
+        <v>222.9</v>
+      </c>
+      <c r="H369" s="2">
+        <v>90.8</v>
+      </c>
+      <c r="I369" s="2">
+        <v>23</v>
+      </c>
+      <c r="J369" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="K369" s="4">
+        <v>1.3659722222222221</v>
+      </c>
+      <c r="L369" s="2">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370">
+        <v>2010</v>
+      </c>
+      <c r="B370" s="2">
+        <v>17</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D370" s="2">
+        <v>338.9</v>
+      </c>
+      <c r="E370" s="2">
+        <v>100.8</v>
+      </c>
+      <c r="F370" s="2">
+        <v>4</v>
+      </c>
+      <c r="G370" s="2">
+        <v>238.1</v>
+      </c>
+      <c r="H370" s="2">
+        <v>82</v>
+      </c>
+      <c r="I370" s="2">
+        <v>27</v>
+      </c>
+      <c r="J370" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="K370" s="4">
+        <v>1.2409722222222224</v>
+      </c>
+      <c r="L370" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371">
+        <v>2010</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D371" s="2">
+        <v>335.9</v>
+      </c>
+      <c r="E371" s="2">
+        <v>91.3</v>
+      </c>
+      <c r="F371" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G371" s="2">
+        <v>244.6</v>
+      </c>
+      <c r="H371" s="2">
+        <v>78</v>
+      </c>
+      <c r="I371" s="2">
+        <v>46</v>
+      </c>
+      <c r="J371" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="K371" s="4">
+        <v>1.2013888888888888</v>
+      </c>
+      <c r="L371" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="A372">
+        <v>2010</v>
+      </c>
+      <c r="B372" s="2">
+        <v>19</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="2">
+        <v>335.1</v>
+      </c>
+      <c r="E372" s="2">
+        <v>125.1</v>
+      </c>
+      <c r="F372" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G372" s="2">
+        <v>210.1</v>
+      </c>
+      <c r="H372" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="I372" s="2">
+        <v>30</v>
+      </c>
+      <c r="J372" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="K372" s="4">
+        <v>1.2833333333333334</v>
+      </c>
+      <c r="L372" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373">
+        <v>2010</v>
+      </c>
+      <c r="B373" s="2">
+        <v>20</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="2">
+        <v>330.6</v>
+      </c>
+      <c r="E373" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="F373" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G373" s="2">
+        <v>235.4</v>
+      </c>
+      <c r="H373" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="I373" s="2">
+        <v>28</v>
+      </c>
+      <c r="J373" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K373" s="4">
+        <v>1.3006944444444444</v>
+      </c>
+      <c r="L373" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374">
+        <v>2010</v>
+      </c>
+      <c r="B374" s="2">
+        <v>21</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D374" s="2">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="E374" s="2">
+        <v>102.7</v>
+      </c>
+      <c r="F374" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G374" s="2">
+        <v>220.4</v>
+      </c>
+      <c r="H374" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="I374" s="2">
+        <v>38</v>
+      </c>
+      <c r="J374" s="2">
+        <v>40</v>
+      </c>
+      <c r="K374" s="4">
+        <v>1.2868055555555555</v>
+      </c>
+      <c r="L374" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375">
+        <v>2010</v>
+      </c>
+      <c r="B375" s="2">
+        <v>22</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" s="2">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="E375" s="2">
+        <v>114.4</v>
+      </c>
+      <c r="F375" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G375" s="2">
+        <v>208.4</v>
+      </c>
+      <c r="H375" s="2">
+        <v>93.6</v>
+      </c>
+      <c r="I375" s="2">
+        <v>40</v>
+      </c>
+      <c r="J375" s="2">
+        <v>39</v>
+      </c>
+      <c r="K375" s="4">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="L375" s="2">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376">
+        <v>2010</v>
+      </c>
+      <c r="B376" s="2">
+        <v>23</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D376" s="2">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="E376" s="2">
+        <v>121.4</v>
+      </c>
+      <c r="F376" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G376" s="2">
+        <v>193.6</v>
+      </c>
+      <c r="H376" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="I376" s="2">
+        <v>36</v>
+      </c>
+      <c r="J376" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="K376" s="4">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="L376" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377">
+        <v>2010</v>
+      </c>
+      <c r="B377" s="2">
+        <v>24</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D377" s="2">
+        <v>313.3</v>
+      </c>
+      <c r="E377" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="F377" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G377" s="2">
+        <v>209.8</v>
+      </c>
+      <c r="H377" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="I377" s="2">
+        <v>44</v>
+      </c>
+      <c r="J377" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="K377" s="4">
+        <v>1.1986111111111111</v>
+      </c>
+      <c r="L377" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378">
+        <v>2010</v>
+      </c>
+      <c r="B378" s="2">
+        <v>25</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378" s="2">
+        <v>305.3</v>
+      </c>
+      <c r="E378" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="F378" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G378" s="2">
+        <v>197.8</v>
+      </c>
+      <c r="H378" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="I378" s="2">
+        <v>34</v>
+      </c>
+      <c r="J378" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K378" s="4">
+        <v>1.1909722222222221</v>
+      </c>
+      <c r="L378" s="2">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379">
+        <v>2010</v>
+      </c>
+      <c r="B379" s="2">
+        <v>26</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D379" s="2">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E379" s="2">
+        <v>98.6</v>
+      </c>
+      <c r="F379" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G379" s="2">
+        <v>204.2</v>
+      </c>
+      <c r="H379" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I379" s="2">
+        <v>34</v>
+      </c>
+      <c r="J379" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K379" s="4">
+        <v>1.2923611111111111</v>
+      </c>
+      <c r="L379" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380">
+        <v>2010</v>
+      </c>
+      <c r="B380" s="2">
+        <v>27</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D380" s="2">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="E380" s="2">
+        <v>107.9</v>
+      </c>
+      <c r="F380" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G380" s="2">
+        <v>194.2</v>
+      </c>
+      <c r="H380" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="I380" s="2">
+        <v>27</v>
+      </c>
+      <c r="J380" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K380" s="4">
+        <v>1.0840277777777778</v>
+      </c>
+      <c r="L380" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381">
+        <v>2010</v>
+      </c>
+      <c r="B381" s="2">
+        <v>28</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D381" s="2">
+        <v>297.89999999999998</v>
+      </c>
+      <c r="E381" s="2">
+        <v>89</v>
+      </c>
+      <c r="F381" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G381" s="2">
+        <v>208.9</v>
+      </c>
+      <c r="H381" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I381" s="2">
+        <v>35</v>
+      </c>
+      <c r="J381" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K381" s="4">
+        <v>1.1472222222222224</v>
+      </c>
+      <c r="L381" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382">
+        <v>2010</v>
+      </c>
+      <c r="B382" s="2">
+        <v>29</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D382" s="2">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="E382" s="2">
+        <v>101</v>
+      </c>
+      <c r="F382" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G382" s="2">
+        <v>188.9</v>
+      </c>
+      <c r="H382" s="2">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I382" s="2">
+        <v>56</v>
+      </c>
+      <c r="J382" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K382" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L382" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383">
+        <v>2010</v>
+      </c>
+      <c r="B383" s="2">
+        <v>30</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" s="2">
+        <v>289.7</v>
+      </c>
+      <c r="E383" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="F383" s="2">
+        <v>4</v>
+      </c>
+      <c r="G383" s="2">
+        <v>186.8</v>
+      </c>
+      <c r="H383" s="2">
+        <v>75</v>
+      </c>
+      <c r="I383" s="2">
+        <v>36</v>
+      </c>
+      <c r="J383" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="K383" s="4">
+        <v>1.1812500000000001</v>
+      </c>
+      <c r="L383" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384">
+        <v>2010</v>
+      </c>
+      <c r="B384" s="2">
+        <v>31</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D384" s="2">
+        <v>269.3</v>
+      </c>
+      <c r="E384" s="2">
+        <v>86.8</v>
+      </c>
+      <c r="F384" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G384" s="2">
+        <v>182.6</v>
+      </c>
+      <c r="H384" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="I384" s="2">
+        <v>50</v>
+      </c>
+      <c r="J384" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="K384" s="4">
+        <v>1.0986111111111112</v>
+      </c>
+      <c r="L384" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
+      <c r="A385">
+        <v>2010</v>
+      </c>
+      <c r="B385" s="2">
+        <v>32</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D385" s="2">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="E385" s="2">
+        <v>115.4</v>
+      </c>
+      <c r="F385" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G385" s="2">
+        <v>143.1</v>
+      </c>
+      <c r="H385" s="2">
+        <v>57</v>
+      </c>
+      <c r="I385" s="2">
+        <v>50</v>
+      </c>
+      <c r="J385" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="K385" s="4">
+        <v>1.1416666666666666</v>
+      </c>
+      <c r="L385" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
+      <c r="A386">
+        <v>2009</v>
+      </c>
+      <c r="B386" s="2">
+        <v>1</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D386" s="2">
+        <v>403.8</v>
+      </c>
+      <c r="E386" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="F386" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G386" s="2">
+        <v>272.2</v>
+      </c>
+      <c r="H386" s="2">
+        <v>106</v>
+      </c>
+      <c r="I386" s="2">
+        <v>20</v>
+      </c>
+      <c r="J386" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="K386" s="4">
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="L386" s="2">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
+      <c r="A387">
+        <v>2009</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" s="2">
+        <v>399.4</v>
+      </c>
+      <c r="E387" s="2">
+        <v>131.4</v>
+      </c>
+      <c r="F387" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G387" s="2">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="H387" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="I387" s="2">
+        <v>34</v>
+      </c>
+      <c r="J387" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="K387" s="4">
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="L387" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388">
+        <v>2009</v>
+      </c>
+      <c r="B388" s="2">
+        <v>3</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388" s="2">
+        <v>397.3</v>
+      </c>
+      <c r="E388" s="2">
+        <v>120.1</v>
+      </c>
+      <c r="F388" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G388" s="2">
+        <v>277.2</v>
+      </c>
+      <c r="H388" s="2">
+        <v>95.6</v>
+      </c>
+      <c r="I388" s="2">
+        <v>18</v>
+      </c>
+      <c r="J388" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="K388" s="4">
+        <v>1.3784722222222223</v>
+      </c>
+      <c r="L388" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="A389">
+        <v>2009</v>
+      </c>
+      <c r="B389" s="2">
+        <v>4</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D389" s="2">
+        <v>383.1</v>
+      </c>
+      <c r="E389" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="F389" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G389" s="2">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="H389" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="I389" s="2">
+        <v>25</v>
+      </c>
+      <c r="J389" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K389" s="4">
+        <v>1.3284722222222223</v>
+      </c>
+      <c r="L389" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390">
+        <v>2009</v>
+      </c>
+      <c r="B390" s="2">
+        <v>5</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390" s="2">
+        <v>379.8</v>
+      </c>
+      <c r="E390" s="2">
+        <v>117.8</v>
+      </c>
+      <c r="F390" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G390" s="2">
+        <v>262</v>
+      </c>
+      <c r="H390" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="I390" s="2">
+        <v>51</v>
+      </c>
+      <c r="J390" s="2">
+        <v>47</v>
+      </c>
+      <c r="K390" s="4">
+        <v>1.3763888888888889</v>
+      </c>
+      <c r="L390" s="2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391">
+        <v>2009</v>
+      </c>
+      <c r="B391" s="2">
+        <v>6</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D391" s="2">
+        <v>379.6</v>
+      </c>
+      <c r="E391" s="2">
+        <v>119.9</v>
+      </c>
+      <c r="F391" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G391" s="2">
+        <v>259.8</v>
+      </c>
+      <c r="H391" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="I391" s="2">
+        <v>34</v>
+      </c>
+      <c r="J391" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="K391" s="4">
+        <v>1.3687500000000001</v>
+      </c>
+      <c r="L391" s="2">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392">
+        <v>2009</v>
+      </c>
+      <c r="B392" s="2">
+        <v>7</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D392" s="2">
+        <v>371.3</v>
+      </c>
+      <c r="E392" s="2">
+        <v>112.1</v>
+      </c>
+      <c r="F392" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G392" s="2">
+        <v>259.2</v>
+      </c>
+      <c r="H392" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="I392" s="2">
+        <v>50</v>
+      </c>
+      <c r="J392" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="K392" s="4">
+        <v>1.3687500000000001</v>
+      </c>
+      <c r="L392" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
+      <c r="A393">
+        <v>2009</v>
+      </c>
+      <c r="B393" s="2">
+        <v>8</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D393" s="2">
+        <v>366</v>
+      </c>
+      <c r="E393" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="F393" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G393" s="2">
+        <v>251.2</v>
+      </c>
+      <c r="H393" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="I393" s="2">
+        <v>32</v>
+      </c>
+      <c r="J393" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="K393" s="4">
+        <v>1.3187499999999999</v>
+      </c>
+      <c r="L393" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
+      <c r="A394">
+        <v>2009</v>
+      </c>
+      <c r="B394" s="2">
+        <v>9</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D394" s="2">
+        <v>363.1</v>
+      </c>
+      <c r="E394" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F394" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G394" s="2">
+        <v>282.2</v>
+      </c>
+      <c r="H394" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="I394" s="2">
+        <v>13</v>
+      </c>
+      <c r="J394" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="K394" s="4">
+        <v>1.1527777777777779</v>
+      </c>
+      <c r="L394" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
+      <c r="A395">
+        <v>2009</v>
+      </c>
+      <c r="B395" s="2">
+        <v>10</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D395" s="2">
+        <v>360.1</v>
+      </c>
+      <c r="E395" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="F395" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G395" s="2">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="H395" s="2">
+        <v>103.1</v>
+      </c>
+      <c r="I395" s="2">
+        <v>26</v>
+      </c>
+      <c r="J395" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K395" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L395" s="2">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
+      <c r="A396">
+        <v>2009</v>
+      </c>
+      <c r="B396" s="2">
+        <v>11</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" s="2">
+        <v>357.9</v>
+      </c>
+      <c r="E396" s="2">
+        <v>102.3</v>
+      </c>
+      <c r="F396" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G396" s="2">
+        <v>255.6</v>
+      </c>
+      <c r="H396" s="2">
+        <v>92</v>
+      </c>
+      <c r="I396" s="2">
+        <v>38</v>
+      </c>
+      <c r="J396" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K396" s="4">
+        <v>1.1763888888888889</v>
+      </c>
+      <c r="L396" s="2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
+      <c r="A397">
+        <v>2009</v>
+      </c>
+      <c r="B397" s="2">
+        <v>12</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D397" s="2">
+        <v>351.4</v>
+      </c>
+      <c r="E397" s="2">
+        <v>162</v>
+      </c>
+      <c r="F397" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G397" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="H397" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="I397" s="2">
+        <v>15</v>
+      </c>
+      <c r="J397" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="K397" s="4">
+        <v>1.195138888888889</v>
+      </c>
+      <c r="L397" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398">
+        <v>2009</v>
+      </c>
+      <c r="B398" s="2">
+        <v>13</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D398" s="2">
+        <v>351.2</v>
+      </c>
+      <c r="E398" s="2">
+        <v>137.5</v>
+      </c>
+      <c r="F398" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G398" s="2">
+        <v>213.7</v>
+      </c>
+      <c r="H398" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="I398" s="2">
+        <v>36</v>
+      </c>
+      <c r="J398" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="K398" s="4">
+        <v>1.23125</v>
+      </c>
+      <c r="L398" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
+      <c r="A399">
+        <v>2009</v>
+      </c>
+      <c r="B399" s="2">
+        <v>14</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D399" s="2">
+        <v>344.4</v>
+      </c>
+      <c r="E399" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="F399" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G399" s="2">
+        <v>251</v>
+      </c>
+      <c r="H399" s="2">
+        <v>89.1</v>
+      </c>
+      <c r="I399" s="2">
+        <v>26</v>
+      </c>
+      <c r="J399" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K399" s="4">
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="L399" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400">
+        <v>2009</v>
+      </c>
+      <c r="B400" s="2">
+        <v>15</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="2">
+        <v>341.4</v>
+      </c>
+      <c r="E400" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="F400" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G400" s="2">
+        <v>226.7</v>
+      </c>
+      <c r="H400" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="I400" s="2">
+        <v>34</v>
+      </c>
+      <c r="J400" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K400" s="4">
+        <v>1.257638888888889</v>
+      </c>
+      <c r="L400" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
+      <c r="A401">
+        <v>2009</v>
+      </c>
+      <c r="B401" s="2">
+        <v>16</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D401" s="2">
+        <v>340.4</v>
+      </c>
+      <c r="E401" s="2">
+        <v>117.2</v>
+      </c>
+      <c r="F401" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G401" s="2">
+        <v>223.2</v>
+      </c>
+      <c r="H401" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I401" s="2">
+        <v>27</v>
+      </c>
+      <c r="J401" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="K401" s="4">
+        <v>1.2451388888888888</v>
+      </c>
+      <c r="L401" s="2">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
+      <c r="A402">
+        <v>2009</v>
+      </c>
+      <c r="B402" s="2">
+        <v>17</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D402" s="2">
+        <v>337.6</v>
+      </c>
+      <c r="E402" s="2">
+        <v>139.4</v>
+      </c>
+      <c r="F402" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G402" s="2">
+        <v>198.1</v>
+      </c>
+      <c r="H402" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="I402" s="2">
+        <v>34</v>
+      </c>
+      <c r="J402" s="2">
+        <v>49</v>
+      </c>
+      <c r="K402" s="4">
+        <v>1.3340277777777778</v>
+      </c>
+      <c r="L402" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
+      <c r="A403">
+        <v>2009</v>
+      </c>
+      <c r="B403" s="2">
+        <v>18</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D403" s="2">
+        <v>336.6</v>
+      </c>
+      <c r="E403" s="2">
+        <v>126.8</v>
+      </c>
+      <c r="F403" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G403" s="2">
+        <v>209.8</v>
+      </c>
+      <c r="H403" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="I403" s="2">
+        <v>44</v>
+      </c>
+      <c r="J403" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="K403" s="4">
+        <v>1.2638888888888888</v>
+      </c>
+      <c r="L403" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
+      <c r="A404">
+        <v>2009</v>
+      </c>
+      <c r="B404" s="2">
+        <v>19</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D404" s="2">
+        <v>331.1</v>
+      </c>
+      <c r="E404" s="2">
+        <v>156.1</v>
+      </c>
+      <c r="F404" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G404" s="2">
+        <v>174.9</v>
+      </c>
+      <c r="H404" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="I404" s="2">
+        <v>33</v>
+      </c>
+      <c r="J404" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="K404" s="4">
+        <v>1.2583333333333333</v>
+      </c>
+      <c r="L404" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
+      <c r="A405">
+        <v>2009</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D405" s="2">
+        <v>321</v>
+      </c>
+      <c r="E405" s="2">
+        <v>172.2</v>
+      </c>
+      <c r="F405" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G405" s="2">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="H405" s="2">
+        <v>62</v>
+      </c>
+      <c r="I405" s="2">
+        <v>30</v>
+      </c>
+      <c r="J405" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K405" s="4">
+        <v>1.3381944444444445</v>
+      </c>
+      <c r="L405" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
+      <c r="A406">
+        <v>2009</v>
+      </c>
+      <c r="B406" s="2">
+        <v>21</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D406" s="2">
+        <v>316.8</v>
+      </c>
+      <c r="E406" s="2">
+        <v>97.9</v>
+      </c>
+      <c r="F406" s="2">
+        <v>4</v>
+      </c>
+      <c r="G406" s="2">
+        <v>218.9</v>
+      </c>
+      <c r="H406" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="I406" s="2">
+        <v>41</v>
+      </c>
+      <c r="J406" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K406" s="4">
+        <v>1.1458333333333333</v>
+      </c>
+      <c r="L406" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
+      <c r="A407">
+        <v>2009</v>
+      </c>
+      <c r="B407" s="2">
+        <v>22</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D407" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="E407" s="2">
+        <v>94.4</v>
+      </c>
+      <c r="F407" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G407" s="2">
+        <v>218.1</v>
+      </c>
+      <c r="H407" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="I407" s="2">
+        <v>46</v>
+      </c>
+      <c r="J407" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K407" s="4">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L407" s="2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
+      <c r="A408">
+        <v>2009</v>
+      </c>
+      <c r="B408" s="2">
+        <v>23</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D408" s="2">
+        <v>310.3</v>
+      </c>
+      <c r="E408" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="F408" s="2">
+        <v>4</v>
+      </c>
+      <c r="G408" s="2">
+        <v>217.1</v>
+      </c>
+      <c r="H408" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I408" s="2">
+        <v>35</v>
+      </c>
+      <c r="J408" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="K408" s="4">
+        <v>1.1916666666666667</v>
+      </c>
+      <c r="L408" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
+      <c r="A409">
+        <v>2009</v>
+      </c>
+      <c r="B409" s="2">
+        <v>24</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D409" s="2">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E409" s="2">
+        <v>128.5</v>
+      </c>
+      <c r="F409" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G409" s="2">
+        <v>180.6</v>
+      </c>
+      <c r="H409" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="I409" s="2">
+        <v>29</v>
+      </c>
+      <c r="J409" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="K409" s="4">
+        <v>1.3527777777777779</v>
+      </c>
+      <c r="L409" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
+      <c r="A410">
+        <v>2009</v>
+      </c>
+      <c r="B410" s="2">
+        <v>25</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" s="2">
+        <v>303.2</v>
+      </c>
+      <c r="E410" s="2">
+        <v>120.6</v>
+      </c>
+      <c r="F410" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G410" s="2">
+        <v>182.6</v>
+      </c>
+      <c r="H410" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="I410" s="2">
+        <v>45</v>
+      </c>
+      <c r="J410" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="K410" s="4">
+        <v>1.1673611111111111</v>
+      </c>
+      <c r="L410" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
+      <c r="A411">
+        <v>2009</v>
+      </c>
+      <c r="B411" s="2">
+        <v>26</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D411" s="2">
+        <v>299</v>
+      </c>
+      <c r="E411" s="2">
+        <v>101</v>
+      </c>
+      <c r="F411" s="2">
+        <v>4</v>
+      </c>
+      <c r="G411" s="2">
+        <v>198</v>
+      </c>
+      <c r="H411" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="I411" s="2">
+        <v>43</v>
+      </c>
+      <c r="J411" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K411" s="4">
+        <v>1.2055555555555555</v>
+      </c>
+      <c r="L411" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
+      <c r="A412">
+        <v>2009</v>
+      </c>
+      <c r="B412" s="2">
+        <v>27</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D412" s="2">
+        <v>290.8</v>
+      </c>
+      <c r="E412" s="2">
+        <v>100</v>
+      </c>
+      <c r="F412" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G412" s="2">
+        <v>190.8</v>
+      </c>
+      <c r="H412" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="I412" s="2">
+        <v>40</v>
+      </c>
+      <c r="J412" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="K412" s="4">
+        <v>1.2402777777777778</v>
+      </c>
+      <c r="L412" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
+      <c r="A413">
+        <v>2009</v>
+      </c>
+      <c r="B413" s="2">
+        <v>28</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" s="2">
+        <v>287.5</v>
+      </c>
+      <c r="E413" s="2">
+        <v>101.7</v>
+      </c>
+      <c r="F413" s="2">
+        <v>4</v>
+      </c>
+      <c r="G413" s="2">
+        <v>185.8</v>
+      </c>
+      <c r="H413" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="I413" s="2">
+        <v>33</v>
+      </c>
+      <c r="J413" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K413" s="4">
+        <v>1.1965277777777776</v>
+      </c>
+      <c r="L413" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
+      <c r="A414">
+        <v>2009</v>
+      </c>
+      <c r="B414" s="2">
+        <v>29</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D414" s="2">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="E414" s="2">
+        <v>111.5</v>
+      </c>
+      <c r="F414" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G414" s="2">
+        <v>167.9</v>
+      </c>
+      <c r="H414" s="2">
+        <v>64</v>
+      </c>
+      <c r="I414" s="2">
+        <v>44</v>
+      </c>
+      <c r="J414" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K414" s="4">
+        <v>1.2152777777777779</v>
+      </c>
+      <c r="L414" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
+      <c r="A415">
+        <v>2009</v>
+      </c>
+      <c r="B415" s="2">
+        <v>30</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D415" s="2">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="E415" s="2">
+        <v>116.7</v>
+      </c>
+      <c r="F415" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G415" s="2">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="H415" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="I415" s="2">
+        <v>46</v>
+      </c>
+      <c r="J415" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="K415" s="4">
+        <v>1.1743055555555555</v>
+      </c>
+      <c r="L415" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
+      <c r="A416">
+        <v>2009</v>
+      </c>
+      <c r="B416" s="2">
+        <v>31</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D416" s="2">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="E416" s="2">
+        <v>106.3</v>
+      </c>
+      <c r="F416" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G416" s="2">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="H416" s="2">
+        <v>62</v>
+      </c>
+      <c r="I416" s="2">
+        <v>49</v>
+      </c>
+      <c r="J416" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="K416" s="4">
+        <v>1.1784722222222224</v>
+      </c>
+      <c r="L416" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417">
+        <v>2009</v>
+      </c>
+      <c r="B417" s="2">
+        <v>32</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" s="2">
+        <v>260.2</v>
+      </c>
+      <c r="E417" s="2">
+        <v>130.4</v>
+      </c>
+      <c r="F417" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G417" s="2">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="H417" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="I417" s="2">
+        <v>30</v>
+      </c>
+      <c r="J417" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K417" s="4">
+        <v>1.2041666666666666</v>
+      </c>
+      <c r="L417" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418">
+        <v>2008</v>
+      </c>
+      <c r="B418" s="2">
+        <v>1</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D418" s="2">
+        <v>410.7</v>
+      </c>
+      <c r="E418" s="2">
+        <v>99.6</v>
+      </c>
+      <c r="F418" s="2">
+        <v>4</v>
+      </c>
+      <c r="G418" s="2">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="H418" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="I418" s="2">
+        <v>13</v>
+      </c>
+      <c r="J418" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="K418" s="4">
+        <v>1.2694444444444444</v>
+      </c>
+      <c r="L418" s="2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419">
+        <v>2008</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D419" s="2">
+        <v>395.6</v>
+      </c>
+      <c r="E419" s="2">
+        <v>116.2</v>
+      </c>
+      <c r="F419" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G419" s="2">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="H419" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="I419" s="2">
+        <v>12</v>
+      </c>
+      <c r="J419" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="K419" s="4">
+        <v>1.1965277777777776</v>
+      </c>
+      <c r="L419" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420">
+        <v>2008</v>
+      </c>
+      <c r="B420" s="2">
+        <v>3</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D420" s="2">
+        <v>382.1</v>
+      </c>
+      <c r="E420" s="2">
+        <v>115.4</v>
+      </c>
+      <c r="F420" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G420" s="2">
+        <v>266.7</v>
+      </c>
+      <c r="H420" s="2">
+        <v>88.4</v>
+      </c>
+      <c r="I420" s="2">
+        <v>32</v>
+      </c>
+      <c r="J420" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="K420" s="4">
+        <v>1.3361111111111112</v>
+      </c>
+      <c r="L420" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421">
+        <v>2008</v>
+      </c>
+      <c r="B421" s="2">
+        <v>4</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D421" s="2">
+        <v>365.8</v>
+      </c>
+      <c r="E421" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F421" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G421" s="2">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="H421" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="I421" s="2">
+        <v>28</v>
+      </c>
+      <c r="J421" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="K421" s="4">
+        <v>1.2569444444444444</v>
+      </c>
+      <c r="L421" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422">
+        <v>2008</v>
+      </c>
+      <c r="B422" s="2">
+        <v>5</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D422" s="2">
+        <v>365.4</v>
+      </c>
+      <c r="E422" s="2">
+        <v>142.4</v>
+      </c>
+      <c r="F422" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G422" s="2">
+        <v>223.1</v>
+      </c>
+      <c r="H422" s="2">
+        <v>89.1</v>
+      </c>
+      <c r="I422" s="2">
+        <v>48</v>
+      </c>
+      <c r="J422" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K422" s="4">
+        <v>1.3506944444444444</v>
+      </c>
+      <c r="L422" s="2">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423">
+        <v>2008</v>
+      </c>
+      <c r="B423" s="2">
+        <v>6</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D423" s="2">
+        <v>361.2</v>
+      </c>
+      <c r="E423" s="2">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="F423" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G423" s="2">
+        <v>208.5</v>
+      </c>
+      <c r="H423" s="2">
+        <v>87.7</v>
+      </c>
+      <c r="I423" s="2">
+        <v>17</v>
+      </c>
+      <c r="J423" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="K423" s="4">
+        <v>1.2986111111111112</v>
+      </c>
+      <c r="L423" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424">
+        <v>2008</v>
+      </c>
+      <c r="B424" s="2">
+        <v>7</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D424" s="2">
+        <v>355.9</v>
+      </c>
+      <c r="E424" s="2">
+        <v>157.4</v>
+      </c>
+      <c r="F424" s="2">
+        <v>5</v>
+      </c>
+      <c r="G424" s="2">
+        <v>198.6</v>
+      </c>
+      <c r="H424" s="2">
+        <v>88.2</v>
+      </c>
+      <c r="I424" s="2">
+        <v>28</v>
+      </c>
+      <c r="J424" s="2">
+        <v>43.1</v>
+      </c>
+      <c r="K424" s="4">
+        <v>1.3881944444444445</v>
+      </c>
+      <c r="L424" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425">
+        <v>2008</v>
+      </c>
+      <c r="B425" s="2">
+        <v>8</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425" s="2">
+        <v>351.1</v>
+      </c>
+      <c r="E425" s="2">
+        <v>112.8</v>
+      </c>
+      <c r="F425" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G425" s="2">
+        <v>238.3</v>
+      </c>
+      <c r="H425" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="I425" s="2">
+        <v>34</v>
+      </c>
+      <c r="J425" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="K425" s="4">
+        <v>1.3173611111111112</v>
+      </c>
+      <c r="L425" s="2">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426">
+        <v>2008</v>
+      </c>
+      <c r="B426" s="2">
+        <v>9</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D426" s="2">
+        <v>350.5</v>
+      </c>
+      <c r="E426" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="F426" s="2">
+        <v>4</v>
+      </c>
+      <c r="G426" s="2">
+        <v>244.4</v>
+      </c>
+      <c r="H426" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I426" s="2">
+        <v>23</v>
+      </c>
+      <c r="J426" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="K426" s="4">
+        <v>1.3083333333333333</v>
+      </c>
+      <c r="L426" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427">
+        <v>2008</v>
+      </c>
+      <c r="B427" s="2">
+        <v>10</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D427" s="2">
+        <v>349.7</v>
+      </c>
+      <c r="E427" s="2">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="F427" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G427" s="2">
+        <v>197.4</v>
+      </c>
+      <c r="H427" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="I427" s="2">
+        <v>20</v>
+      </c>
+      <c r="J427" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K427" s="4">
+        <v>1.2277777777777776</v>
+      </c>
+      <c r="L427" s="2">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428">
+        <v>2008</v>
+      </c>
+      <c r="B428" s="2">
+        <v>11</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D428" s="2">
+        <v>349</v>
+      </c>
+      <c r="E428" s="2">
+        <v>107.9</v>
+      </c>
+      <c r="F428" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G428" s="2">
+        <v>241.1</v>
+      </c>
+      <c r="H428" s="2">
+        <v>105.5</v>
+      </c>
+      <c r="I428" s="2">
+        <v>25</v>
+      </c>
+      <c r="J428" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="K428" s="4">
+        <v>1.2027777777777777</v>
+      </c>
+      <c r="L428" s="2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429">
+        <v>2008</v>
+      </c>
+      <c r="B429" s="2">
+        <v>12</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D429" s="2">
+        <v>345.6</v>
+      </c>
+      <c r="E429" s="2">
+        <v>118.6</v>
+      </c>
+      <c r="F429" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G429" s="2">
+        <v>227</v>
+      </c>
+      <c r="H429" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="I429" s="2">
+        <v>26</v>
+      </c>
+      <c r="J429" s="2">
+        <v>37</v>
+      </c>
+      <c r="K429" s="4">
+        <v>1.29375</v>
+      </c>
+      <c r="L429" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430">
+        <v>2008</v>
+      </c>
+      <c r="B430" s="2">
+        <v>13</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D430" s="2">
+        <v>344.5</v>
+      </c>
+      <c r="E430" s="2">
+        <v>107.7</v>
+      </c>
+      <c r="F430" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G430" s="2">
+        <v>236.8</v>
+      </c>
+      <c r="H430" s="2">
+        <v>84.9</v>
+      </c>
+      <c r="I430" s="2">
+        <v>31</v>
+      </c>
+      <c r="J430" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="K430" s="4">
+        <v>1.2513888888888889</v>
+      </c>
+      <c r="L430" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431">
+        <v>2008</v>
+      </c>
+      <c r="B431" s="2">
+        <v>14</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="2">
+        <v>341</v>
+      </c>
+      <c r="E431" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="F431" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G431" s="2">
+        <v>226.2</v>
+      </c>
+      <c r="H431" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="I431" s="2">
+        <v>32</v>
+      </c>
+      <c r="J431" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="K431" s="4">
+        <v>1.3430555555555557</v>
+      </c>
+      <c r="L431" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432">
+        <v>2008</v>
+      </c>
+      <c r="B432" s="2">
+        <v>15</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D432" s="2">
+        <v>335.5</v>
+      </c>
+      <c r="E432" s="2">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F432" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G432" s="2">
+        <v>255.9</v>
+      </c>
+      <c r="H432" s="2">
+        <v>94.7</v>
+      </c>
+      <c r="I432" s="2">
+        <v>14</v>
+      </c>
+      <c r="J432" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="K432" s="4">
+        <v>1.1930555555555555</v>
+      </c>
+      <c r="L432" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433">
+        <v>2008</v>
+      </c>
+      <c r="B433" s="2">
+        <v>16</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" s="2">
+        <v>331.7</v>
+      </c>
+      <c r="E433" s="2">
+        <v>125.2</v>
+      </c>
+      <c r="F433" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G433" s="2">
+        <v>206.4</v>
+      </c>
+      <c r="H433" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="I433" s="2">
+        <v>30</v>
+      </c>
+      <c r="J433" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="K433" s="4">
+        <v>1.2958333333333334</v>
+      </c>
+      <c r="L433" s="2">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434">
+        <v>2008</v>
+      </c>
+      <c r="B434" s="2">
+        <v>17</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D434" s="2">
+        <v>330.9</v>
+      </c>
+      <c r="E434" s="2">
+        <v>146.1</v>
+      </c>
+      <c r="F434" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G434" s="2">
+        <v>184.8</v>
+      </c>
+      <c r="H434" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="I434" s="2">
+        <v>43</v>
+      </c>
+      <c r="J434" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="K434" s="4">
+        <v>1.3041666666666667</v>
+      </c>
+      <c r="L434" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435">
+        <v>2008</v>
+      </c>
+      <c r="B435" s="2">
+        <v>18</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D435" s="2">
+        <v>324</v>
+      </c>
+      <c r="E435" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="F435" s="2">
+        <v>4</v>
+      </c>
+      <c r="G435" s="2">
+        <v>175.5</v>
+      </c>
+      <c r="H435" s="2">
+        <v>82.8</v>
+      </c>
+      <c r="I435" s="2">
+        <v>33</v>
+      </c>
+      <c r="J435" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="K435" s="4">
+        <v>1.3902777777777777</v>
+      </c>
+      <c r="L435" s="2">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436">
+        <v>2008</v>
+      </c>
+      <c r="B436" s="2">
+        <v>19</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D436" s="2">
+        <v>320</v>
+      </c>
+      <c r="E436" s="2">
+        <v>130.9</v>
+      </c>
+      <c r="F436" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G436" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="H436" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="I436" s="2">
+        <v>38</v>
+      </c>
+      <c r="J436" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K436" s="4">
+        <v>1.3125</v>
+      </c>
+      <c r="L436" s="2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437">
+        <v>2008</v>
+      </c>
+      <c r="B437" s="2">
+        <v>20</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D437" s="2">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="E437" s="2">
+        <v>110.9</v>
+      </c>
+      <c r="F437" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G437" s="2">
+        <v>208.2</v>
+      </c>
+      <c r="H437" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I437" s="2">
+        <v>42</v>
+      </c>
+      <c r="J437" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K437" s="4">
+        <v>1.3118055555555557</v>
+      </c>
+      <c r="L437" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438">
+        <v>2008</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D438" s="2">
+        <v>313.60000000000002</v>
+      </c>
+      <c r="E438" s="2">
+        <v>137.4</v>
+      </c>
+      <c r="F438" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G438" s="2">
+        <v>176.2</v>
+      </c>
+      <c r="H438" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="I438" s="2">
+        <v>12</v>
+      </c>
+      <c r="J438" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="K438" s="4">
+        <v>1.2208333333333334</v>
+      </c>
+      <c r="L438" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439">
+        <v>2008</v>
+      </c>
+      <c r="B439" s="2">
+        <v>22</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D439" s="2">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="E439" s="2">
+        <v>105.6</v>
+      </c>
+      <c r="F439" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G439" s="2">
+        <v>206.3</v>
+      </c>
+      <c r="H439" s="2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="I439" s="2">
+        <v>49</v>
+      </c>
+      <c r="J439" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="K439" s="4">
+        <v>1.320138888888889</v>
+      </c>
+      <c r="L439" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440">
+        <v>2008</v>
+      </c>
+      <c r="B440" s="2">
+        <v>23</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D440" s="2">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="E440" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="F440" s="2">
+        <v>4</v>
+      </c>
+      <c r="G440" s="2">
+        <v>211.2</v>
+      </c>
+      <c r="H440" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I440" s="2">
+        <v>55</v>
+      </c>
+      <c r="J440" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K440" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L440" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441">
+        <v>2008</v>
+      </c>
+      <c r="B441" s="2">
+        <v>24</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" s="2">
+        <v>308.7</v>
+      </c>
+      <c r="E441" s="2">
+        <v>113.1</v>
+      </c>
+      <c r="F441" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G441" s="2">
+        <v>195.6</v>
+      </c>
+      <c r="H441" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="I441" s="2">
+        <v>33</v>
+      </c>
+      <c r="J441" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K441" s="4">
+        <v>1.1694444444444445</v>
+      </c>
+      <c r="L441" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442">
+        <v>2008</v>
+      </c>
+      <c r="B442" s="2">
+        <v>25</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442" s="2">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="E442" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="F442" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G442" s="2">
+        <v>190</v>
+      </c>
+      <c r="H442" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="I442" s="2">
+        <v>38</v>
+      </c>
+      <c r="J442" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="K442" s="4">
+        <v>1.2520833333333334</v>
+      </c>
+      <c r="L442" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443">
+        <v>2008</v>
+      </c>
+      <c r="B443" s="2">
+        <v>26</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D443" s="2">
+        <v>296.2</v>
+      </c>
+      <c r="E443" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="F443" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G443" s="2">
+        <v>191.7</v>
+      </c>
+      <c r="H443" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I443" s="2">
+        <v>26</v>
+      </c>
+      <c r="J443" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="K443" s="4">
+        <v>1.1916666666666667</v>
+      </c>
+      <c r="L443" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444">
+        <v>2008</v>
+      </c>
+      <c r="B444" s="2">
+        <v>27</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D444" s="2">
+        <v>287.2</v>
+      </c>
+      <c r="E444" s="2">
+        <v>103.1</v>
+      </c>
+      <c r="F444" s="2">
+        <v>4</v>
+      </c>
+      <c r="G444" s="2">
+        <v>184.2</v>
+      </c>
+      <c r="H444" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="I444" s="2">
+        <v>45</v>
+      </c>
+      <c r="J444" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="K444" s="4">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="L444" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445">
+        <v>2008</v>
+      </c>
+      <c r="B445" s="2">
+        <v>28</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D445" s="2">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="E445" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="F445" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G445" s="2">
+        <v>163.6</v>
+      </c>
+      <c r="H445" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="I445" s="2">
+        <v>36</v>
+      </c>
+      <c r="J445" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="K445" s="4">
+        <v>1.1090277777777777</v>
+      </c>
+      <c r="L445" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446">
+        <v>2008</v>
+      </c>
+      <c r="B446" s="2">
+        <v>29</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D446" s="2">
+        <v>272.2</v>
+      </c>
+      <c r="E446" s="2">
+        <v>124.2</v>
+      </c>
+      <c r="F446" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G446" s="2">
+        <v>148.1</v>
+      </c>
+      <c r="H446" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I446" s="2">
+        <v>39</v>
+      </c>
+      <c r="J446" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="K446" s="4">
+        <v>1.1881944444444443</v>
+      </c>
+      <c r="L446" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447">
+        <v>2008</v>
+      </c>
+      <c r="B447" s="2">
+        <v>30</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D447" s="2">
+        <v>268.2</v>
+      </c>
+      <c r="E447" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="F447" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G447" s="2">
+        <v>185</v>
+      </c>
+      <c r="H447" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="I447" s="2">
+        <v>52</v>
+      </c>
+      <c r="J447" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="K447" s="4">
+        <v>1.1243055555555557</v>
+      </c>
+      <c r="L447" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448">
+        <v>2008</v>
+      </c>
+      <c r="B448" s="2">
+        <v>31</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D448" s="2">
+        <v>249.2</v>
+      </c>
+      <c r="E448" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="F448" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G448" s="2">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="H448" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="I448" s="2">
+        <v>24</v>
+      </c>
+      <c r="J448" s="2">
+        <v>34</v>
+      </c>
+      <c r="K448" s="4">
+        <v>1.1472222222222224</v>
+      </c>
+      <c r="L448" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449">
+        <v>2008</v>
+      </c>
+      <c r="B449" s="2">
+        <v>32</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D449" s="2">
+        <v>245.4</v>
+      </c>
+      <c r="E449" s="2">
+        <v>95</v>
+      </c>
+      <c r="F449" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G449" s="2">
+        <v>150.4</v>
+      </c>
+      <c r="H449" s="2">
+        <v>68</v>
+      </c>
+      <c r="I449" s="2">
+        <v>51</v>
+      </c>
+      <c r="J449" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K449" s="4">
+        <v>1.2201388888888889</v>
+      </c>
+      <c r="L449" s="2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450">
+        <v>2007</v>
+      </c>
+      <c r="B450" s="2">
+        <v>1</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D450" s="2">
+        <v>411.2</v>
+      </c>
+      <c r="E450" s="2">
+        <v>115.6</v>
+      </c>
+      <c r="F450" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G450" s="2">
+        <v>295.7</v>
+      </c>
+      <c r="H450" s="2">
+        <v>116</v>
+      </c>
+      <c r="I450" s="2">
+        <v>21</v>
+      </c>
+      <c r="J450" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="K450" s="4">
+        <v>1.3576388888888891</v>
+      </c>
+      <c r="L450" s="2">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451">
+        <v>2007</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="2">
+        <v>370.7</v>
+      </c>
+      <c r="E451" s="2">
+        <v>99.8</v>
+      </c>
+      <c r="F451" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G451" s="2">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="H451" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="I451" s="2">
+        <v>19</v>
+      </c>
+      <c r="J451" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="K451" s="4">
+        <v>1.2631944444444445</v>
+      </c>
+      <c r="L451" s="2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452">
+        <v>2007</v>
+      </c>
+      <c r="B452" s="2">
+        <v>3</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D452" s="2">
+        <v>365.7</v>
+      </c>
+      <c r="E452" s="2">
+        <v>109.1</v>
+      </c>
+      <c r="F452" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G452" s="2">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="H452" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="I452" s="2">
+        <v>25</v>
+      </c>
+      <c r="J452" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="K452" s="4">
+        <v>1.2729166666666667</v>
+      </c>
+      <c r="L452" s="2">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453">
+        <v>2007</v>
+      </c>
+      <c r="B453" s="2">
+        <v>4</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D453" s="2">
+        <v>361.2</v>
+      </c>
+      <c r="E453" s="2">
+        <v>91.6</v>
+      </c>
+      <c r="F453" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G453" s="2">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="H453" s="2">
+        <v>89.4</v>
+      </c>
+      <c r="I453" s="2">
+        <v>16</v>
+      </c>
+      <c r="J453" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="K453" s="4">
+        <v>1.2972222222222223</v>
+      </c>
+      <c r="L453" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454">
+        <v>2007</v>
+      </c>
+      <c r="B454" s="2">
+        <v>5</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454" s="2">
+        <v>358.7</v>
+      </c>
+      <c r="E454" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="F454" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G454" s="2">
+        <v>252.1</v>
+      </c>
+      <c r="H454" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="I454" s="2">
+        <v>23</v>
+      </c>
+      <c r="J454" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="K454" s="4">
+        <v>1.2416666666666667</v>
+      </c>
+      <c r="L454" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455">
+        <v>2007</v>
+      </c>
+      <c r="B455" s="2">
+        <v>6</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D455" s="2">
+        <v>358.1</v>
+      </c>
+      <c r="E455" s="2">
+        <v>123.4</v>
+      </c>
+      <c r="F455" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G455" s="2">
+        <v>234.7</v>
+      </c>
+      <c r="H455" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I455" s="2">
+        <v>49</v>
+      </c>
+      <c r="J455" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="K455" s="4">
+        <v>1.288888888888889</v>
+      </c>
+      <c r="L455" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456">
+        <v>2007</v>
+      </c>
+      <c r="B456" s="2">
+        <v>7</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D456" s="2">
+        <v>357.4</v>
+      </c>
+      <c r="E456" s="2">
+        <v>149.4</v>
+      </c>
+      <c r="F456" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G456" s="2">
+        <v>208</v>
+      </c>
+      <c r="H456" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="I456" s="2">
+        <v>31</v>
+      </c>
+      <c r="J456" s="2">
+        <v>45.7</v>
+      </c>
+      <c r="K456" s="4">
+        <v>1.3381944444444445</v>
+      </c>
+      <c r="L456" s="2">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457">
+        <v>2007</v>
+      </c>
+      <c r="B457" s="2">
+        <v>8</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D457" s="2">
+        <v>351.3</v>
+      </c>
+      <c r="E457" s="2">
+        <v>118.4</v>
+      </c>
+      <c r="F457" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G457" s="2">
+        <v>232.9</v>
+      </c>
+      <c r="H457" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="I457" s="2">
+        <v>19</v>
+      </c>
+      <c r="J457" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="K457" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L457" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458">
+        <v>2007</v>
+      </c>
+      <c r="B458" s="2">
+        <v>9</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D458" s="2">
+        <v>348.9</v>
+      </c>
+      <c r="E458" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="F458" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G458" s="2">
+        <v>247.8</v>
+      </c>
+      <c r="H458" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="I458" s="2">
+        <v>36</v>
+      </c>
+      <c r="J458" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="K458" s="4">
+        <v>1.2493055555555557</v>
+      </c>
+      <c r="L458" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459">
+        <v>2007</v>
+      </c>
+      <c r="B459" s="2">
+        <v>10</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D459" s="2">
+        <v>348</v>
+      </c>
+      <c r="E459" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="F459" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G459" s="2">
+        <v>250.8</v>
+      </c>
+      <c r="H459" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="I459" s="2">
+        <v>17</v>
+      </c>
+      <c r="J459" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="K459" s="4">
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="L459" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460">
+        <v>2007</v>
+      </c>
+      <c r="B460" s="2">
+        <v>11</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D460" s="2">
+        <v>346.3</v>
+      </c>
+      <c r="E460" s="2">
+        <v>122.3</v>
+      </c>
+      <c r="F460" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G460" s="2">
+        <v>224</v>
+      </c>
+      <c r="H460" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="I460" s="2">
+        <v>32</v>
+      </c>
+      <c r="J460" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="K460" s="4">
+        <v>1.2319444444444445</v>
+      </c>
+      <c r="L460" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461">
+        <v>2007</v>
+      </c>
+      <c r="B461" s="2">
+        <v>12</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D461" s="2">
+        <v>344.1</v>
+      </c>
+      <c r="E461" s="2">
+        <v>90</v>
+      </c>
+      <c r="F461" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G461" s="2">
+        <v>254.1</v>
+      </c>
+      <c r="H461" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I461" s="2">
+        <v>24</v>
+      </c>
+      <c r="J461" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="K461" s="4">
+        <v>1.2770833333333333</v>
+      </c>
+      <c r="L461" s="2">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462">
+        <v>2007</v>
+      </c>
+      <c r="B462" s="2">
+        <v>13</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D462" s="2">
+        <v>336.2</v>
+      </c>
+      <c r="E462" s="2">
+        <v>164.6</v>
+      </c>
+      <c r="F462" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G462" s="2">
+        <v>171.6</v>
+      </c>
+      <c r="H462" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="I462" s="2">
+        <v>37</v>
+      </c>
+      <c r="J462" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="K462" s="4">
+        <v>1.2319444444444445</v>
+      </c>
+      <c r="L462" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463">
+        <v>2007</v>
+      </c>
+      <c r="B463" s="2">
+        <v>14</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D463" s="2">
+        <v>333.6</v>
+      </c>
+      <c r="E463" s="2">
+        <v>99.1</v>
+      </c>
+      <c r="F463" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G463" s="2">
+        <v>234.4</v>
+      </c>
+      <c r="H463" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="I463" s="2">
+        <v>22</v>
+      </c>
+      <c r="J463" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="K463" s="4">
+        <v>1.2368055555555555</v>
+      </c>
+      <c r="L463" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464">
+        <v>2007</v>
+      </c>
+      <c r="B464" s="2">
+        <v>15</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D464" s="2">
+        <v>333.4</v>
+      </c>
+      <c r="E464" s="2">
+        <v>117</v>
+      </c>
+      <c r="F464" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G464" s="2">
+        <v>216.4</v>
+      </c>
+      <c r="H464" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="I464" s="2">
+        <v>28</v>
+      </c>
+      <c r="J464" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K464" s="4">
+        <v>1.2986111111111112</v>
+      </c>
+      <c r="L464" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465">
+        <v>2007</v>
+      </c>
+      <c r="B465" s="2">
+        <v>16</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D465" s="2">
+        <v>331.4</v>
+      </c>
+      <c r="E465" s="2">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="F465" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G465" s="2">
+        <v>197.1</v>
+      </c>
+      <c r="H465" s="2">
+        <v>73</v>
+      </c>
+      <c r="I465" s="2">
+        <v>28</v>
+      </c>
+      <c r="J465" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="K465" s="4">
+        <v>1.3062500000000001</v>
+      </c>
+      <c r="L465" s="2">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466">
+        <v>2007</v>
+      </c>
+      <c r="B466" s="2">
+        <v>17</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D466" s="2">
+        <v>328.3</v>
+      </c>
+      <c r="E466" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="F466" s="2">
+        <v>4</v>
+      </c>
+      <c r="G466" s="2">
+        <v>247.8</v>
+      </c>
+      <c r="H466" s="2">
+        <v>80</v>
+      </c>
+      <c r="I466" s="2">
+        <v>53</v>
+      </c>
+      <c r="J466" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K466" s="4">
+        <v>1.1548611111111111</v>
+      </c>
+      <c r="L466" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467">
+        <v>2007</v>
+      </c>
+      <c r="B467" s="2">
+        <v>18</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D467" s="2">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="E467" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="F467" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G467" s="2">
+        <v>191.9</v>
+      </c>
+      <c r="H467" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="I467" s="2">
+        <v>47</v>
+      </c>
+      <c r="J467" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="K467" s="4">
+        <v>1.3944444444444446</v>
+      </c>
+      <c r="L467" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468">
+        <v>2007</v>
+      </c>
+      <c r="B468" s="2">
+        <v>19</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468" s="2">
+        <v>326.8</v>
+      </c>
+      <c r="E468" s="2">
+        <v>117</v>
+      </c>
+      <c r="F468" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G468" s="2">
+        <v>209.8</v>
+      </c>
+      <c r="H468" s="2">
+        <v>91.7</v>
+      </c>
+      <c r="I468" s="2">
+        <v>36</v>
+      </c>
+      <c r="J468" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="K468" s="4">
+        <v>1.26875</v>
+      </c>
+      <c r="L468" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469">
+        <v>2007</v>
+      </c>
+      <c r="B469" s="2">
+        <v>20</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D469" s="2">
+        <v>315.2</v>
+      </c>
+      <c r="E469" s="2">
+        <v>127.4</v>
+      </c>
+      <c r="F469" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G469" s="2">
+        <v>187.8</v>
+      </c>
+      <c r="H469" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="I469" s="2">
+        <v>24</v>
+      </c>
+      <c r="J469" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K469" s="4">
+        <v>1.2520833333333334</v>
+      </c>
+      <c r="L469" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470">
+        <v>2007</v>
+      </c>
+      <c r="B470" s="2">
+        <v>21</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D470" s="2">
+        <v>311.7</v>
+      </c>
+      <c r="E470" s="2">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="F470" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G470" s="2">
+        <v>179.9</v>
+      </c>
+      <c r="H470" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I470" s="2">
+        <v>30</v>
+      </c>
+      <c r="J470" s="2">
+        <v>41</v>
+      </c>
+      <c r="K470" s="4">
+        <v>1.3277777777777777</v>
+      </c>
+      <c r="L470" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471">
+        <v>2007</v>
+      </c>
+      <c r="B471" s="2">
+        <v>22</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D471" s="2">
+        <v>302</v>
+      </c>
+      <c r="E471" s="2">
+        <v>112.3</v>
+      </c>
+      <c r="F471" s="2">
+        <v>4</v>
+      </c>
+      <c r="G471" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="H471" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="I471" s="2">
+        <v>39</v>
+      </c>
+      <c r="J471" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="K471" s="4">
+        <v>1.2986111111111112</v>
+      </c>
+      <c r="L471" s="2">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472">
+        <v>2007</v>
+      </c>
+      <c r="B472" s="2">
+        <v>23</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D472" s="2">
+        <v>300.8</v>
+      </c>
+      <c r="E472" s="2">
+        <v>95</v>
+      </c>
+      <c r="F472" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G472" s="2">
+        <v>205.8</v>
+      </c>
+      <c r="H472" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="I472" s="2">
+        <v>47</v>
+      </c>
+      <c r="J472" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K472" s="4">
+        <v>1.1965277777777776</v>
+      </c>
+      <c r="L472" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473">
+        <v>2007</v>
+      </c>
+      <c r="B473" s="2">
+        <v>24</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D473" s="2">
+        <v>297.5</v>
+      </c>
+      <c r="E473" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="F473" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G473" s="2">
+        <v>202.1</v>
+      </c>
+      <c r="H473" s="2">
+        <v>67</v>
+      </c>
+      <c r="I473" s="2">
+        <v>48</v>
+      </c>
+      <c r="J473" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K473" s="4">
+        <v>1.2555555555555555</v>
+      </c>
+      <c r="L473" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474">
+        <v>2007</v>
+      </c>
+      <c r="B474" s="2">
+        <v>25</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D474" s="2">
+        <v>294.8</v>
+      </c>
+      <c r="E474" s="2">
+        <v>130.4</v>
+      </c>
+      <c r="F474" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G474" s="2">
+        <v>164.4</v>
+      </c>
+      <c r="H474" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="I474" s="2">
+        <v>41</v>
+      </c>
+      <c r="J474" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K474" s="4">
+        <v>1.3097222222222222</v>
+      </c>
+      <c r="L474" s="2">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475">
+        <v>2007</v>
+      </c>
+      <c r="B475" s="2">
+        <v>26</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D475" s="2">
+        <v>294.7</v>
+      </c>
+      <c r="E475" s="2">
+        <v>106.3</v>
+      </c>
+      <c r="F475" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G475" s="2">
+        <v>188.4</v>
+      </c>
+      <c r="H475" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I475" s="2">
+        <v>53</v>
+      </c>
+      <c r="J475" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="K475" s="4">
+        <v>1.2125000000000001</v>
+      </c>
+      <c r="L475" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476">
+        <v>2007</v>
+      </c>
+      <c r="B476" s="2">
+        <v>27</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D476" s="2">
+        <v>293.2</v>
+      </c>
+      <c r="E476" s="2">
+        <v>83.1</v>
+      </c>
+      <c r="F476" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G476" s="2">
+        <v>210.1</v>
+      </c>
+      <c r="H476" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="I476" s="2">
+        <v>43</v>
+      </c>
+      <c r="J476" s="2">
+        <v>34</v>
+      </c>
+      <c r="K476" s="4">
+        <v>1.1861111111111111</v>
+      </c>
+      <c r="L476" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477">
+        <v>2007</v>
+      </c>
+      <c r="B477" s="2">
+        <v>28</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D477" s="2">
+        <v>287.5</v>
+      </c>
+      <c r="E477" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="F477" s="2">
+        <v>4</v>
+      </c>
+      <c r="G477" s="2">
+        <v>189.4</v>
+      </c>
+      <c r="H477" s="2">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I477" s="2">
+        <v>42</v>
+      </c>
+      <c r="J477" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K477" s="4">
+        <v>1.2270833333333333</v>
+      </c>
+      <c r="L477" s="2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478">
+        <v>2007</v>
+      </c>
+      <c r="B478" s="2">
+        <v>29</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D478" s="2">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="E478" s="2">
+        <v>114</v>
+      </c>
+      <c r="F478" s="2">
+        <v>4</v>
+      </c>
+      <c r="G478" s="2">
+        <v>170.9</v>
+      </c>
+      <c r="H478" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I478" s="2">
+        <v>33</v>
+      </c>
+      <c r="J478" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K478" s="4">
+        <v>1.1972222222222222</v>
+      </c>
+      <c r="L478" s="2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479">
+        <v>2007</v>
+      </c>
+      <c r="B479" s="2">
+        <v>30</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479" s="2">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="E479" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="F479" s="2">
+        <v>4</v>
+      </c>
+      <c r="G479" s="2">
+        <v>164.6</v>
+      </c>
+      <c r="H479" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="I479" s="2">
+        <v>26</v>
+      </c>
+      <c r="J479" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K479" s="4">
+        <v>1.2013888888888888</v>
+      </c>
+      <c r="L479" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480">
+        <v>2007</v>
+      </c>
+      <c r="B480" s="2">
+        <v>31</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" s="2">
+        <v>276.8</v>
+      </c>
+      <c r="E480" s="2">
+        <v>78</v>
+      </c>
+      <c r="F480" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G480" s="2">
+        <v>198.8</v>
+      </c>
+      <c r="H480" s="2">
+        <v>73</v>
+      </c>
+      <c r="I480" s="2">
+        <v>55</v>
+      </c>
+      <c r="J480" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="K480" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L480" s="2">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481">
+        <v>2007</v>
+      </c>
+      <c r="B481" s="2">
+        <v>32</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D481" s="2">
+        <v>237.4</v>
+      </c>
+      <c r="E481" s="2">
+        <v>92.3</v>
+      </c>
+      <c r="F481" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G481" s="2">
+        <v>145.1</v>
+      </c>
+      <c r="H481" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="I481" s="2">
+        <v>54</v>
+      </c>
+      <c r="J481" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="K481" s="4">
+        <v>1.1298611111111112</v>
+      </c>
+      <c r="L481" s="2">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482">
+        <v>2006</v>
+      </c>
+      <c r="B482" s="2">
+        <v>1</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D482" s="2">
+        <v>391.5</v>
+      </c>
+      <c r="E482" s="2">
+        <v>110.1</v>
+      </c>
+      <c r="F482" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G482" s="2">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H482" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="I482" s="2">
+        <v>23</v>
+      </c>
+      <c r="J482" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="K482" s="4">
+        <v>1.3284722222222223</v>
+      </c>
+      <c r="L482" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483">
+        <v>2006</v>
+      </c>
+      <c r="B483" s="2">
+        <v>2</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D483" s="2">
+        <v>381.4</v>
+      </c>
+      <c r="E483" s="2">
+        <v>124</v>
+      </c>
+      <c r="F483" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G483" s="2">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="H483" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="I483" s="2">
+        <v>28</v>
+      </c>
+      <c r="J483" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="K483" s="4">
+        <v>1.2069444444444444</v>
+      </c>
+      <c r="L483" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484">
+        <v>2006</v>
+      </c>
+      <c r="B484" s="2">
+        <v>3</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D484" s="2">
+        <v>379.4</v>
+      </c>
+      <c r="E484" s="2">
+        <v>110.1</v>
+      </c>
+      <c r="F484" s="2">
+        <v>4</v>
+      </c>
+      <c r="G484" s="2">
+        <v>269.2</v>
+      </c>
+      <c r="H484" s="2">
+        <v>101</v>
+      </c>
+      <c r="I484" s="2">
+        <v>15</v>
+      </c>
+      <c r="J484" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="K484" s="4">
+        <v>1.2298611111111111</v>
+      </c>
+      <c r="L484" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485">
+        <v>2006</v>
+      </c>
+      <c r="B485" s="2">
+        <v>4</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D485" s="2">
+        <v>365</v>
+      </c>
+      <c r="E485" s="2">
+        <v>161.1</v>
+      </c>
+      <c r="F485" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G485" s="2">
+        <v>203.9</v>
+      </c>
+      <c r="H485" s="2">
+        <v>93</v>
+      </c>
+      <c r="I485" s="2">
+        <v>28</v>
+      </c>
+      <c r="J485" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K485" s="4">
+        <v>1.3180555555555555</v>
+      </c>
+      <c r="L485" s="2">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486">
+        <v>2006</v>
+      </c>
+      <c r="B486" s="2">
+        <v>5</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D486" s="2">
+        <v>360.8</v>
+      </c>
+      <c r="E486" s="2">
+        <v>121</v>
+      </c>
+      <c r="F486" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G486" s="2">
+        <v>239.8</v>
+      </c>
+      <c r="H486" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="I486" s="2">
+        <v>37</v>
+      </c>
+      <c r="J486" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="K486" s="4">
+        <v>1.2930555555555556</v>
+      </c>
+      <c r="L486" s="2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487">
+        <v>2006</v>
+      </c>
+      <c r="B487" s="2">
+        <v>6</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D487" s="2">
+        <v>360.4</v>
+      </c>
+      <c r="E487" s="2">
+        <v>112.8</v>
+      </c>
+      <c r="F487" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G487" s="2">
+        <v>247.6</v>
+      </c>
+      <c r="H487" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="I487" s="2">
+        <v>49</v>
+      </c>
+      <c r="J487" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K487" s="4">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="L487" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488">
+        <v>2006</v>
+      </c>
+      <c r="B488" s="2">
+        <v>7</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D488" s="2">
+        <v>357.8</v>
+      </c>
+      <c r="E488" s="2">
+        <v>124.5</v>
+      </c>
+      <c r="F488" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G488" s="2">
+        <v>233.3</v>
+      </c>
+      <c r="H488" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="I488" s="2">
+        <v>49</v>
+      </c>
+      <c r="J488" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="K488" s="4">
+        <v>1.3118055555555557</v>
+      </c>
+      <c r="L488" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489">
+        <v>2006</v>
+      </c>
+      <c r="B489" s="2">
+        <v>8</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D489" s="2">
+        <v>341.3</v>
+      </c>
+      <c r="E489" s="2">
+        <v>101.8</v>
+      </c>
+      <c r="F489" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G489" s="2">
+        <v>239.6</v>
+      </c>
+      <c r="H489" s="2">
+        <v>94.1</v>
+      </c>
+      <c r="I489" s="2">
+        <v>36</v>
+      </c>
+      <c r="J489" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K489" s="4">
+        <v>1.1916666666666667</v>
+      </c>
+      <c r="L489" s="2">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490">
+        <v>2006</v>
+      </c>
+      <c r="B490" s="2">
+        <v>9</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D490" s="2">
+        <v>341.1</v>
+      </c>
+      <c r="E490" s="2">
+        <v>103.9</v>
+      </c>
+      <c r="F490" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G490" s="2">
+        <v>237.2</v>
+      </c>
+      <c r="H490" s="2">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I490" s="2">
+        <v>24</v>
+      </c>
+      <c r="J490" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K490" s="4">
+        <v>1.28125</v>
+      </c>
+      <c r="L490" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491">
+        <v>2006</v>
+      </c>
+      <c r="B491" s="2">
+        <v>10</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D491" s="2">
+        <v>338.9</v>
+      </c>
+      <c r="E491" s="2">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="F491" s="2">
+        <v>5</v>
+      </c>
+      <c r="G491" s="2">
+        <v>180.1</v>
+      </c>
+      <c r="H491" s="2">
+        <v>80</v>
+      </c>
+      <c r="I491" s="2">
+        <v>30</v>
+      </c>
+      <c r="J491" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K491" s="4">
+        <v>1.3430555555555557</v>
+      </c>
+      <c r="L491" s="2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492">
+        <v>2006</v>
+      </c>
+      <c r="B492" s="2">
+        <v>11</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D492" s="2">
+        <v>335.6</v>
+      </c>
+      <c r="E492" s="2">
+        <v>123.1</v>
+      </c>
+      <c r="F492" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G492" s="2">
+        <v>212.5</v>
+      </c>
+      <c r="H492" s="2">
+        <v>88.3</v>
+      </c>
+      <c r="I492" s="2">
+        <v>29</v>
+      </c>
+      <c r="J492" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K492" s="4">
+        <v>1.3159722222222221</v>
+      </c>
+      <c r="L492" s="2">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493">
+        <v>2006</v>
+      </c>
+      <c r="B493" s="2">
+        <v>12</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D493" s="2">
+        <v>331.9</v>
+      </c>
+      <c r="E493" s="2">
+        <v>183.7</v>
+      </c>
+      <c r="F493" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G493" s="2">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="H493" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="I493" s="2">
+        <v>47</v>
+      </c>
+      <c r="J493" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K493" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L493" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494">
+        <v>2006</v>
+      </c>
+      <c r="B494" s="2">
+        <v>13</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D494" s="2">
+        <v>327.7</v>
+      </c>
+      <c r="E494" s="2">
+        <v>138.5</v>
+      </c>
+      <c r="F494" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G494" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="H494" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I494" s="2">
+        <v>19</v>
+      </c>
+      <c r="J494" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K494" s="4">
+        <v>1.2597222222222222</v>
+      </c>
+      <c r="L494" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495">
+        <v>2006</v>
+      </c>
+      <c r="B495" s="2">
+        <v>14</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D495" s="2">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="E495" s="2">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="F495" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G495" s="2">
+        <v>191.1</v>
+      </c>
+      <c r="H495" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="I495" s="2">
+        <v>25</v>
+      </c>
+      <c r="J495" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K495" s="4">
+        <v>1.2472222222222222</v>
+      </c>
+      <c r="L495" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
+      <c r="A496">
+        <v>2006</v>
+      </c>
+      <c r="B496" s="2">
+        <v>15</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D496" s="2">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="E496" s="2">
+        <v>119.9</v>
+      </c>
+      <c r="F496" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G496" s="2">
+        <v>205.1</v>
+      </c>
+      <c r="H496" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="I496" s="2">
+        <v>25</v>
+      </c>
+      <c r="J496" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K496" s="4">
+        <v>1.2881944444444444</v>
+      </c>
+      <c r="L496" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497">
+        <v>2006</v>
+      </c>
+      <c r="B497" s="2">
+        <v>16</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D497" s="2">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="E497" s="2">
+        <v>133.9</v>
+      </c>
+      <c r="F497" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G497" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="H497" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="I497" s="2">
+        <v>41</v>
+      </c>
+      <c r="J497" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="K497" s="4">
+        <v>1.2708333333333333</v>
+      </c>
+      <c r="L497" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498">
+        <v>2006</v>
+      </c>
+      <c r="B498" s="2">
+        <v>17</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D498" s="2">
+        <v>317</v>
+      </c>
+      <c r="E498" s="2">
+        <v>102.3</v>
+      </c>
+      <c r="F498" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G498" s="2">
+        <v>214.7</v>
+      </c>
+      <c r="H498" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I498" s="2">
+        <v>17</v>
+      </c>
+      <c r="J498" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="K498" s="4">
+        <v>1.3666666666666665</v>
+      </c>
+      <c r="L498" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499">
+        <v>2006</v>
+      </c>
+      <c r="B499" s="2">
+        <v>18</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D499" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="E499" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="F499" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G499" s="2">
+        <v>228.9</v>
+      </c>
+      <c r="H499" s="2">
+        <v>78.7</v>
+      </c>
+      <c r="I499" s="2">
+        <v>35</v>
+      </c>
+      <c r="J499" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K499" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L499" s="2">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12">
+      <c r="A500">
+        <v>2006</v>
+      </c>
+      <c r="B500" s="2">
+        <v>19</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D500" s="2">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="E500" s="2">
+        <v>120.2</v>
+      </c>
+      <c r="F500" s="2">
+        <v>4</v>
+      </c>
+      <c r="G500" s="2">
+        <v>190.9</v>
+      </c>
+      <c r="H500" s="2">
+        <v>76</v>
+      </c>
+      <c r="I500" s="2">
+        <v>49</v>
+      </c>
+      <c r="J500" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K500" s="4">
+        <v>1.2416666666666667</v>
+      </c>
+      <c r="L500" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
+      <c r="A501">
+        <v>2006</v>
+      </c>
+      <c r="B501" s="2">
+        <v>20</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D501" s="2">
+        <v>310</v>
+      </c>
+      <c r="E501" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="F501" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G501" s="2">
+        <v>205.4</v>
+      </c>
+      <c r="H501" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="I501" s="2">
+        <v>41</v>
+      </c>
+      <c r="J501" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="K501" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L501" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12">
+      <c r="A502">
+        <v>2006</v>
+      </c>
+      <c r="B502" s="2">
+        <v>21</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D502" s="2">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="E502" s="2">
+        <v>134.5</v>
+      </c>
+      <c r="F502" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G502" s="2">
+        <v>174.9</v>
+      </c>
+      <c r="H502" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="I502" s="2">
+        <v>31</v>
+      </c>
+      <c r="J502" s="2">
+        <v>37</v>
+      </c>
+      <c r="K502" s="4">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="L502" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="A503">
+        <v>2006</v>
+      </c>
+      <c r="B503" s="2">
+        <v>22</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D503" s="2">
+        <v>309.3</v>
+      </c>
+      <c r="E503" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G503" s="2">
+        <v>238.8</v>
+      </c>
+      <c r="H503" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I503" s="2">
+        <v>63</v>
+      </c>
+      <c r="J503" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K503" s="4">
+        <v>1.1534722222222222</v>
+      </c>
+      <c r="L503" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
+      <c r="A504">
+        <v>2006</v>
+      </c>
+      <c r="B504" s="2">
+        <v>23</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D504" s="2">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="E504" s="2">
+        <v>113.8</v>
+      </c>
+      <c r="F504" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G504" s="2">
+        <v>195.2</v>
+      </c>
+      <c r="H504" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="I504" s="2">
+        <v>43</v>
+      </c>
+      <c r="J504" s="2">
+        <v>33</v>
+      </c>
+      <c r="K504" s="4">
+        <v>1.3270833333333334</v>
+      </c>
+      <c r="L504" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12">
+      <c r="A505">
+        <v>2006</v>
+      </c>
+      <c r="B505" s="2">
+        <v>24</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D505" s="2">
+        <v>307.7</v>
+      </c>
+      <c r="E505" s="2">
+        <v>103.7</v>
+      </c>
+      <c r="F505" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G505" s="2">
+        <v>204</v>
+      </c>
+      <c r="H505" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="I505" s="2">
+        <v>32</v>
+      </c>
+      <c r="J505" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="K505" s="4">
+        <v>1.2680555555555555</v>
+      </c>
+      <c r="L505" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506">
+        <v>2006</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D506" s="2">
+        <v>305.7</v>
+      </c>
+      <c r="E506" s="2">
+        <v>108.6</v>
+      </c>
+      <c r="F506" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G506" s="2">
+        <v>197.1</v>
+      </c>
+      <c r="H506" s="2">
+        <v>82.1</v>
+      </c>
+      <c r="I506" s="2">
+        <v>34</v>
+      </c>
+      <c r="J506" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="K506" s="4">
+        <v>1.2930555555555556</v>
+      </c>
+      <c r="L506" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
+      <c r="A507">
+        <v>2006</v>
+      </c>
+      <c r="B507" s="2">
+        <v>26</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507" s="2">
+        <v>303.8</v>
+      </c>
+      <c r="E507" s="2">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="F507" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G507" s="2">
+        <v>168</v>
+      </c>
+      <c r="H507" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I507" s="2">
+        <v>35</v>
+      </c>
+      <c r="J507" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="K507" s="4">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="L507" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="A508">
+        <v>2006</v>
+      </c>
+      <c r="B508" s="2">
+        <v>27</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D508" s="2">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="E508" s="2">
+        <v>138.4</v>
+      </c>
+      <c r="F508" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G508" s="2">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="H508" s="2">
+        <v>61.8</v>
+      </c>
+      <c r="I508" s="2">
+        <v>29</v>
+      </c>
+      <c r="J508" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K508" s="4">
+        <v>1.1409722222222223</v>
+      </c>
+      <c r="L508" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
+      <c r="A509">
+        <v>2006</v>
+      </c>
+      <c r="B509" s="2">
+        <v>28</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D509" s="2">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="E509" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="F509" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G509" s="2">
+        <v>173.6</v>
+      </c>
+      <c r="H509" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="I509" s="2">
+        <v>43</v>
+      </c>
+      <c r="J509" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="K509" s="4">
+        <v>1.2229166666666667</v>
+      </c>
+      <c r="L509" s="2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="A510">
+        <v>2006</v>
+      </c>
+      <c r="B510" s="2">
+        <v>29</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510" s="2">
+        <v>270.10000000000002</v>
+      </c>
+      <c r="E510" s="2">
+        <v>95.2</v>
+      </c>
+      <c r="F510" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G510" s="2">
+        <v>174.9</v>
+      </c>
+      <c r="H510" s="2">
+        <v>66.2</v>
+      </c>
+      <c r="I510" s="2">
+        <v>33</v>
+      </c>
+      <c r="J510" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="K510" s="4">
+        <v>1.1840277777777779</v>
+      </c>
+      <c r="L510" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="A511">
+        <v>2006</v>
+      </c>
+      <c r="B511" s="2">
+        <v>30</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D511" s="2">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="E511" s="2">
+        <v>97</v>
+      </c>
+      <c r="F511" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G511" s="2">
+        <v>169.9</v>
+      </c>
+      <c r="H511" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I511" s="2">
+        <v>47</v>
+      </c>
+      <c r="J511" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="K511" s="4">
+        <v>1.1694444444444445</v>
+      </c>
+      <c r="L511" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="A512">
+        <v>2006</v>
+      </c>
+      <c r="B512" s="2">
+        <v>31</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D512" s="2">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="E512" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="F512" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G512" s="2">
+        <v>181.1</v>
+      </c>
+      <c r="H512" s="2">
+        <v>69.8</v>
+      </c>
+      <c r="I512" s="2">
+        <v>54</v>
+      </c>
+      <c r="J512" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K512" s="4">
+        <v>1.2319444444444445</v>
+      </c>
+      <c r="L512" s="2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
+      <c r="A513">
+        <v>2006</v>
+      </c>
+      <c r="B513" s="2">
+        <v>32</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D513" s="2">
+        <v>246.2</v>
+      </c>
+      <c r="E513" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="F513" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G513" s="2">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="H513" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="I513" s="2">
+        <v>72</v>
+      </c>
+      <c r="J513" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K513" s="4">
+        <v>1.1756944444444444</v>
+      </c>
+      <c r="L513" s="2">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -13078,6 +20374,198 @@
     <hyperlink ref="C319" r:id="rId318" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{CA82D352-7C12-2345-87F5-C044DCB46ED1}"/>
     <hyperlink ref="C320" r:id="rId319" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{F84BC4A4-B6A1-9F46-B6A0-2C3A3F532B0D}"/>
     <hyperlink ref="C321" r:id="rId320" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{02249CD2-D0B0-7C4C-95A6-F727F30FCBD5}"/>
+    <hyperlink ref="C322" r:id="rId321" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{C25DAC98-DED4-D047-81F0-4D86919E2588}"/>
+    <hyperlink ref="C323" r:id="rId322" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{F6471794-AF0A-B340-AD19-2654F4A97CFD}"/>
+    <hyperlink ref="C324" r:id="rId323" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{DF8ABC2A-ED9F-E34B-BF10-9F4AF996EBEC}"/>
+    <hyperlink ref="C325" r:id="rId324" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{8C880D16-C594-6B47-8900-9700D0CCA63C}"/>
+    <hyperlink ref="C326" r:id="rId325" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{EBA2218D-8186-AB42-90FC-C31AF9AFEC7A}"/>
+    <hyperlink ref="C327" r:id="rId326" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{E1B84665-B0B4-234B-AA8A-D8A86D799D90}"/>
+    <hyperlink ref="C328" r:id="rId327" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{5F4644AC-3C4B-9E49-A411-CF259E298173}"/>
+    <hyperlink ref="C329" r:id="rId328" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{5EB10D89-85CB-AF43-8497-4CD94F7A789E}"/>
+    <hyperlink ref="C330" r:id="rId329" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{0B95C3F4-5511-8240-ABE0-812727ED56DC}"/>
+    <hyperlink ref="C331" r:id="rId330" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{1CBF6A25-B011-5A47-B7D6-1E581C68AA32}"/>
+    <hyperlink ref="C332" r:id="rId331" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{6E507262-971D-D544-BF29-6E225305D55C}"/>
+    <hyperlink ref="C333" r:id="rId332" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{23D25AD4-1C47-E342-8E81-1FC078A77920}"/>
+    <hyperlink ref="C334" r:id="rId333" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{D8F4350E-D2F1-F94A-9A1F-009EC7E59528}"/>
+    <hyperlink ref="C335" r:id="rId334" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{47396B02-809F-344F-B9E9-94E1527BFEB0}"/>
+    <hyperlink ref="C336" r:id="rId335" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{9A59EABF-1A6D-464D-BF9A-7C5C872F358D}"/>
+    <hyperlink ref="C337" r:id="rId336" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{205204F3-AB16-894F-B39F-65BC07DED7D1}"/>
+    <hyperlink ref="C338" r:id="rId337" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{3EBCB4BF-AE4F-7C40-9954-02CAC4E802C4}"/>
+    <hyperlink ref="C339" r:id="rId338" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{C26023BC-9E49-E94C-B6BA-76AC26358E6B}"/>
+    <hyperlink ref="C340" r:id="rId339" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{5B97FD1D-2229-FE4F-A3BB-6642F5BB61D6}"/>
+    <hyperlink ref="C341" r:id="rId340" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{A9DCDB73-0C6B-B140-8A33-C2F0F040D621}"/>
+    <hyperlink ref="C342" r:id="rId341" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{7FDB39FB-6A39-0D40-B8BD-1C0490658E22}"/>
+    <hyperlink ref="C343" r:id="rId342" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{3714155E-26DA-D04D-B938-3037F77FA0FF}"/>
+    <hyperlink ref="C344" r:id="rId343" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{3132C17E-8138-F044-A2DD-9CEDC2198406}"/>
+    <hyperlink ref="C345" r:id="rId344" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{EC8B4E8D-0FA1-8E47-916B-EC244100D93C}"/>
+    <hyperlink ref="C346" r:id="rId345" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{88AE4755-C3F0-4040-AC66-78165080BB1B}"/>
+    <hyperlink ref="C347" r:id="rId346" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{E8EE723D-126F-1745-B234-47302AD59DA3}"/>
+    <hyperlink ref="C348" r:id="rId347" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{FEFB78FC-1577-9943-9FC5-3145E829A1D2}"/>
+    <hyperlink ref="C349" r:id="rId348" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{81A8C681-57F2-2149-9E03-25B052D20A10}"/>
+    <hyperlink ref="C350" r:id="rId349" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{D088109D-95B8-4847-A032-A4D9D70E4657}"/>
+    <hyperlink ref="C351" r:id="rId350" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{D69090CB-EA0A-AA44-8625-309F497D051B}"/>
+    <hyperlink ref="C352" r:id="rId351" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{89B3E839-0039-8D48-AE09-E94F1A875337}"/>
+    <hyperlink ref="C353" r:id="rId352" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{8297BD2B-ABAE-734B-9C40-89351A4A0D76}"/>
+    <hyperlink ref="C385" r:id="rId353" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{BE27C487-05A4-6744-B5B8-2FAEFBAC034C}"/>
+    <hyperlink ref="C384" r:id="rId354" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{D7405D5F-2740-EB46-9271-1F0105D9A06A}"/>
+    <hyperlink ref="C383" r:id="rId355" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{C2B4FD0B-0631-3849-9F9A-8637FECED268}"/>
+    <hyperlink ref="C382" r:id="rId356" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{F5BFB0DF-93AA-C241-9D6C-53B116382516}"/>
+    <hyperlink ref="C381" r:id="rId357" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{BCF14307-EDCF-FB43-9CEA-7DAEA8CB549F}"/>
+    <hyperlink ref="C380" r:id="rId358" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{BED6C829-AAEF-E142-A227-BA5BC4119A0A}"/>
+    <hyperlink ref="C379" r:id="rId359" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{193DF63E-FE52-C24F-ABCD-BB1128418A9E}"/>
+    <hyperlink ref="C378" r:id="rId360" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{BEFDF4E2-829C-6642-BEDF-3A9C15C8F6C7}"/>
+    <hyperlink ref="C377" r:id="rId361" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{2252B85F-61C9-D64B-B00D-49420501DEEE}"/>
+    <hyperlink ref="C376" r:id="rId362" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{D0812EA4-6495-A048-B152-00A2BCDB1287}"/>
+    <hyperlink ref="C375" r:id="rId363" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{53C1FD28-49E3-7247-B11C-C05D6963319F}"/>
+    <hyperlink ref="C374" r:id="rId364" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{D8F34446-E2BF-3E4A-8361-DC5B35A24307}"/>
+    <hyperlink ref="C373" r:id="rId365" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{5153515E-5107-6847-9B52-7BAD92903295}"/>
+    <hyperlink ref="C372" r:id="rId366" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{E69E62D9-A5C9-8044-973B-421CEC2C999C}"/>
+    <hyperlink ref="C371" r:id="rId367" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{0E7FF4F9-0938-D44B-AEFE-405E66F6ACE0}"/>
+    <hyperlink ref="C370" r:id="rId368" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{A3048E04-57E2-E449-88E3-E61C39BF7803}"/>
+    <hyperlink ref="C369" r:id="rId369" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{3A6214EE-19FD-9248-BB82-C8CB5172CD48}"/>
+    <hyperlink ref="C368" r:id="rId370" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{59E92C86-82DA-564A-A67E-1E0CB014944F}"/>
+    <hyperlink ref="C367" r:id="rId371" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{CBB3D1DB-3484-3341-8CFE-18FF58D52EE4}"/>
+    <hyperlink ref="C366" r:id="rId372" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{C28483E5-F1DA-7C4C-9B6A-1B57F8786294}"/>
+    <hyperlink ref="C365" r:id="rId373" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{38F7C043-59E1-5C42-9835-E55B6C605B04}"/>
+    <hyperlink ref="C364" r:id="rId374" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{6E3562F6-2215-3F46-9EED-758158ECA44C}"/>
+    <hyperlink ref="C363" r:id="rId375" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{C8A629E1-1D39-4047-AD57-8FAF55B01813}"/>
+    <hyperlink ref="C362" r:id="rId376" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{22668751-9F35-854C-910F-73BAB70A64AB}"/>
+    <hyperlink ref="C361" r:id="rId377" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{BAC5999F-3856-5B46-946F-6AB7157D6129}"/>
+    <hyperlink ref="C360" r:id="rId378" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{B8B2CEDA-B290-1C48-89FF-71030CD4108F}"/>
+    <hyperlink ref="C359" r:id="rId379" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{D772DEE6-645E-F64F-BC9A-6219DA76C658}"/>
+    <hyperlink ref="C358" r:id="rId380" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{CBFDC103-7F29-8141-8052-23D1132013B2}"/>
+    <hyperlink ref="C357" r:id="rId381" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{2A210C37-AA69-FB41-9100-4B53E461A46A}"/>
+    <hyperlink ref="C356" r:id="rId382" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{F7E2C05B-1458-F047-B657-55210A6F3841}"/>
+    <hyperlink ref="C355" r:id="rId383" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{F809D38F-E563-2543-B2F8-3BFC71A32039}"/>
+    <hyperlink ref="C354" r:id="rId384" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{D6020792-F005-CB48-B179-BFE6EEC00E1A}"/>
+    <hyperlink ref="C386" r:id="rId385" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{4CEF76DA-D50D-C540-A8BA-DC28BE2E9159}"/>
+    <hyperlink ref="C387" r:id="rId386" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{C3FC9B5B-0C00-0C4A-8402-3444414E0CB3}"/>
+    <hyperlink ref="C388" r:id="rId387" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{26404C3E-816B-3D4F-AD37-0F3F11BEE800}"/>
+    <hyperlink ref="C389" r:id="rId388" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{E5C0326F-6C9A-6847-92C1-3769619A9599}"/>
+    <hyperlink ref="C390" r:id="rId389" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{449BB07A-FB9B-D84B-8053-99EBF80DD7AC}"/>
+    <hyperlink ref="C391" r:id="rId390" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{199680E7-8A8E-B041-B4A3-769793D044C0}"/>
+    <hyperlink ref="C392" r:id="rId391" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{4A1B9BAA-798B-C94B-B939-A3B5792DDB19}"/>
+    <hyperlink ref="C393" r:id="rId392" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{3A29AD5C-BEA6-5A49-811F-97EF2A6B2912}"/>
+    <hyperlink ref="C394" r:id="rId393" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{CD70E857-B0C5-4046-8D01-7BD5AD6A08FB}"/>
+    <hyperlink ref="C395" r:id="rId394" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{44116159-3DC0-4E48-B22C-BB340AA209F8}"/>
+    <hyperlink ref="C396" r:id="rId395" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{6EC4FDBC-80F7-FE4D-A25F-67ABEA034747}"/>
+    <hyperlink ref="C397" r:id="rId396" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{AB60A2CB-E89A-E741-8D91-E6BD81FFB241}"/>
+    <hyperlink ref="C398" r:id="rId397" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{6087B30A-C389-484D-A2E2-43BEDBF11432}"/>
+    <hyperlink ref="C399" r:id="rId398" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{266263F8-3F2C-4842-82A6-2906217138D4}"/>
+    <hyperlink ref="C400" r:id="rId399" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{0D238B37-C966-BC43-8DE7-378BA239A2A1}"/>
+    <hyperlink ref="C401" r:id="rId400" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{59EB9699-8C46-9D48-9ED6-6B3ECC4B7BE9}"/>
+    <hyperlink ref="C402" r:id="rId401" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{92BBB26D-AC1A-534F-BE29-E0D27F64FA6A}"/>
+    <hyperlink ref="C403" r:id="rId402" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{A5C27FF8-89FA-ED47-850E-D18D4B1922C9}"/>
+    <hyperlink ref="C404" r:id="rId403" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{F87C4C1F-F8C5-EA4F-86D4-C4A43F2C0561}"/>
+    <hyperlink ref="C405" r:id="rId404" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{0608691C-B132-D940-885A-035EB27CC6F5}"/>
+    <hyperlink ref="C406" r:id="rId405" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{505468EF-DA37-1E48-A246-C47860B954DA}"/>
+    <hyperlink ref="C407" r:id="rId406" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{09FA7181-CB24-1343-97D1-9CD78FA04EAC}"/>
+    <hyperlink ref="C408" r:id="rId407" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{D12DCBEB-9D15-BD4D-8595-6B9883B1EA88}"/>
+    <hyperlink ref="C409" r:id="rId408" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{54978035-5713-C34F-ACED-CCF25D70AFA8}"/>
+    <hyperlink ref="C410" r:id="rId409" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{70FE1FBB-26D5-7045-AE32-AA5F82B861C6}"/>
+    <hyperlink ref="C411" r:id="rId410" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{AA9EA50C-8F7C-E34C-A6FC-58A811011D68}"/>
+    <hyperlink ref="C412" r:id="rId411" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{83163A0C-6F5A-B145-BB79-01433892BAD4}"/>
+    <hyperlink ref="C413" r:id="rId412" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{1E3C43FB-62EB-2E4E-8876-23753B7748BA}"/>
+    <hyperlink ref="C414" r:id="rId413" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{17E6CD98-3F77-764F-B457-3E7758C4887B}"/>
+    <hyperlink ref="C415" r:id="rId414" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{00372C4F-92EC-144C-A8E1-4FE9E7D789C6}"/>
+    <hyperlink ref="C416" r:id="rId415" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{226CAC04-1B36-EA44-9CFE-F8960FB1C804}"/>
+    <hyperlink ref="C417" r:id="rId416" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{D80BF9C8-0689-244D-8425-6A21E997DA58}"/>
+    <hyperlink ref="C418" r:id="rId417" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{F9F74D7B-D81F-C94E-852A-9576EE238875}"/>
+    <hyperlink ref="C419" r:id="rId418" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{8B94459A-594E-9D4A-A39C-4EE30676D1A1}"/>
+    <hyperlink ref="C420" r:id="rId419" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{062A67A7-F0E1-0649-8ABD-5607848FBA82}"/>
+    <hyperlink ref="C421" r:id="rId420" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{5A4B4255-2383-3147-BDD3-93D5991D4D68}"/>
+    <hyperlink ref="C422" r:id="rId421" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{6CB51FF8-768A-7441-89C4-AC1B20E33861}"/>
+    <hyperlink ref="C423" r:id="rId422" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{880F0C95-BDAE-D545-BCA3-4F1739B3FC4F}"/>
+    <hyperlink ref="C424" r:id="rId423" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{CC353588-51A5-E64B-9A40-4CB1C1DBBBB3}"/>
+    <hyperlink ref="C425" r:id="rId424" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{CCEC6542-E919-704D-898A-64861C54F8B1}"/>
+    <hyperlink ref="C426" r:id="rId425" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{8F41281F-329F-244A-9531-0128B8CE5FB6}"/>
+    <hyperlink ref="C427" r:id="rId426" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{1FC33FB1-3F18-B242-91CA-0CA091214DF1}"/>
+    <hyperlink ref="C428" r:id="rId427" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{10264887-2D8E-B64B-87AC-370B191ED5F7}"/>
+    <hyperlink ref="C429" r:id="rId428" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{6FCE6166-DFC4-A249-AF42-854DA6F0C991}"/>
+    <hyperlink ref="C430" r:id="rId429" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{F43B2387-199D-6941-BE18-65FA92C1A38D}"/>
+    <hyperlink ref="C431" r:id="rId430" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{2836E1D6-AA49-084D-9FA4-EE80ABEEB8CB}"/>
+    <hyperlink ref="C432" r:id="rId431" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{0C3CE06C-1747-A444-B43C-6A6D5C72AEF1}"/>
+    <hyperlink ref="C433" r:id="rId432" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{67074A84-C66E-9247-BE14-2BF5DCEE04CB}"/>
+    <hyperlink ref="C434" r:id="rId433" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{E151C6C4-0211-FC4D-896A-37FA4D011612}"/>
+    <hyperlink ref="C435" r:id="rId434" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{F737BEB5-CFE8-9E40-AE9D-F9FBE331D6B3}"/>
+    <hyperlink ref="C436" r:id="rId435" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{3B985FB3-5380-B348-894A-FB6809D26821}"/>
+    <hyperlink ref="C437" r:id="rId436" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{FA93EE86-1E57-964F-B2F3-527B34CBD448}"/>
+    <hyperlink ref="C438" r:id="rId437" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{809D744B-F5D9-1143-8467-449362D66B1C}"/>
+    <hyperlink ref="C439" r:id="rId438" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{1E5A3117-34A0-2D4B-BB51-2FF8AD3E26EA}"/>
+    <hyperlink ref="C440" r:id="rId439" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{71E370FD-74E3-CD48-ADD9-2BE4F663C647}"/>
+    <hyperlink ref="C441" r:id="rId440" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{0F161AB9-9D44-964C-8470-414896D6B9FD}"/>
+    <hyperlink ref="C442" r:id="rId441" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{05D337F1-5528-324E-91EC-6FFF9B8F919A}"/>
+    <hyperlink ref="C443" r:id="rId442" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{56CB0696-EC37-4B42-AF6C-CFD97F94C1CF}"/>
+    <hyperlink ref="C444" r:id="rId443" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{57764F30-2C8E-F743-ABB8-BDEFE412CD2E}"/>
+    <hyperlink ref="C445" r:id="rId444" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{2F3B9F4F-6FCC-E541-B0C8-47AE2D1645CD}"/>
+    <hyperlink ref="C446" r:id="rId445" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{4F728365-E534-4448-A929-7FCCF2D6FF9C}"/>
+    <hyperlink ref="C447" r:id="rId446" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{A7761AFB-1B95-2C45-BFE9-C3C52B600629}"/>
+    <hyperlink ref="C448" r:id="rId447" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{D022359C-9DA8-1342-BDE8-5646A3616E3A}"/>
+    <hyperlink ref="C449" r:id="rId448" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{2927AFC1-588B-9840-A169-D4C2D569F651}"/>
+    <hyperlink ref="C450" r:id="rId449" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{C1F5DE40-C3EA-9A42-BA04-7B8E88789D25}"/>
+    <hyperlink ref="C451" r:id="rId450" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{BB647C9C-47C4-8149-A757-39217D17C539}"/>
+    <hyperlink ref="C452" r:id="rId451" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{C5FBDE1D-51E9-9F42-8D3E-FDE2A2E49263}"/>
+    <hyperlink ref="C453" r:id="rId452" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{92130B49-9CF7-5B44-8EB6-D0FBB268B32F}"/>
+    <hyperlink ref="C454" r:id="rId453" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{02B208FF-9DA8-9E4F-853F-02338D97EA8B}"/>
+    <hyperlink ref="C455" r:id="rId454" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{536E8EFE-9575-764D-90FA-08055AE742BD}"/>
+    <hyperlink ref="C456" r:id="rId455" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{37D1C795-2067-5C4A-82DD-930DC4D2227A}"/>
+    <hyperlink ref="C457" r:id="rId456" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{1E38DB18-6F60-DD41-84C0-1DA264C1A2CD}"/>
+    <hyperlink ref="C458" r:id="rId457" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{7F80F80E-81EB-144F-9512-3CB7450F0D31}"/>
+    <hyperlink ref="C459" r:id="rId458" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{AE13FA64-B045-6042-B2B9-4CFCD3D015D1}"/>
+    <hyperlink ref="C460" r:id="rId459" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{CF35A0B9-976D-D045-B7E7-E6AC04ED428B}"/>
+    <hyperlink ref="C461" r:id="rId460" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{95D03D5F-67B0-AE41-B3B1-D22C88A83363}"/>
+    <hyperlink ref="C462" r:id="rId461" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{322AABD8-FD16-4F4C-981A-B06EBB1BE3C1}"/>
+    <hyperlink ref="C463" r:id="rId462" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{9770B37F-CC0B-C941-9A3A-88933BAB152E}"/>
+    <hyperlink ref="C464" r:id="rId463" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{7AA4CDA6-9C0C-3C42-997E-22B1B556F1D0}"/>
+    <hyperlink ref="C465" r:id="rId464" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{F5301698-DE92-2B41-B1B5-65D86AB1E713}"/>
+    <hyperlink ref="C466" r:id="rId465" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{2EC46BE2-4FEE-C74C-B161-E77076F44A8D}"/>
+    <hyperlink ref="C467" r:id="rId466" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{D1740AF6-0B2C-4042-B229-747112940E6A}"/>
+    <hyperlink ref="C468" r:id="rId467" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{D5BAB333-3EC6-4445-8377-742554111554}"/>
+    <hyperlink ref="C469" r:id="rId468" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{70EDA091-ED7D-2940-83B2-CB5F1C4020D4}"/>
+    <hyperlink ref="C470" r:id="rId469" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{C1588FC6-CF12-6549-B35D-CE01601A4057}"/>
+    <hyperlink ref="C471" r:id="rId470" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{952990CE-FF3C-BF41-903E-77A44D0DF0D3}"/>
+    <hyperlink ref="C472" r:id="rId471" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{38B392F2-9DB0-754F-B01B-30C453A2FA36}"/>
+    <hyperlink ref="C473" r:id="rId472" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{EF5E48A5-3D96-7445-9C49-728C43CB751D}"/>
+    <hyperlink ref="C474" r:id="rId473" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{662D015D-FA0B-2540-861A-C735F5274055}"/>
+    <hyperlink ref="C475" r:id="rId474" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{59A09A20-5FE6-EB46-A525-841412F26F2B}"/>
+    <hyperlink ref="C476" r:id="rId475" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{A13B6ED7-FC60-BE44-A2E9-BC7AD0EF8DAB}"/>
+    <hyperlink ref="C477" r:id="rId476" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{458A1261-0DE4-244A-97A8-724D664C8648}"/>
+    <hyperlink ref="C478" r:id="rId477" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{87F595D3-A03D-7649-9B64-0FB7558D2115}"/>
+    <hyperlink ref="C479" r:id="rId478" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{A2228DCA-C85A-6A4A-971C-12FB78B958B4}"/>
+    <hyperlink ref="C480" r:id="rId479" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{738CEABB-1FE9-CD40-825C-96269FB13D49}"/>
+    <hyperlink ref="C481" r:id="rId480" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{761C53F5-8282-2E4F-8C87-4A055D683DBA}"/>
+    <hyperlink ref="C482" r:id="rId481" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{065EF6AF-7892-DC41-B918-CBFC73908BDE}"/>
+    <hyperlink ref="C483" r:id="rId482" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{7138A875-BEAA-AA47-B49E-E0E703228076}"/>
+    <hyperlink ref="C484" r:id="rId483" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{B88F290E-F978-D540-9F30-C9ADCBB68BDF}"/>
+    <hyperlink ref="C485" r:id="rId484" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{1020D2AF-D0F9-7240-99FB-7AEBFCF0AC57}"/>
+    <hyperlink ref="C486" r:id="rId485" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{F530F29C-9EE4-6840-98DE-970F8CD1F274}"/>
+    <hyperlink ref="C487" r:id="rId486" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{C03E33F0-E728-7E45-BD83-6E7E1BEE3AD3}"/>
+    <hyperlink ref="C488" r:id="rId487" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{0BB96A3A-5AB5-FC44-B058-94B336198DF9}"/>
+    <hyperlink ref="C489" r:id="rId488" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{4A401014-3316-1444-AEC3-2DCF8138A7F7}"/>
+    <hyperlink ref="C490" r:id="rId489" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{5129A3BA-EE9C-124E-A5B1-644C0270892D}"/>
+    <hyperlink ref="C491" r:id="rId490" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{33742E72-B009-CD4D-B4D2-DF07BDA5584B}"/>
+    <hyperlink ref="C492" r:id="rId491" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{5925AAB3-06D5-E54B-9A1D-2762A15FE01F}"/>
+    <hyperlink ref="C493" r:id="rId492" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{392A3FDD-F51C-EE46-9510-1C82F3BBFA04}"/>
+    <hyperlink ref="C494" r:id="rId493" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{0E20F09C-65CC-1140-8CF3-74E6F7A75391}"/>
+    <hyperlink ref="C495" r:id="rId494" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{A01309CB-E847-E643-A481-6071FD76585C}"/>
+    <hyperlink ref="C496" r:id="rId495" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{183BABC6-00BD-F041-8C79-E8D1CB3CB1CC}"/>
+    <hyperlink ref="C497" r:id="rId496" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{CD942F3E-7D30-EA4D-989B-1509183E38D2}"/>
+    <hyperlink ref="C498" r:id="rId497" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{FB9C0F96-DBF1-4F4B-A881-BED63B492161}"/>
+    <hyperlink ref="C499" r:id="rId498" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{791F2ED7-47B1-4749-961C-8F649892319E}"/>
+    <hyperlink ref="C500" r:id="rId499" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{E58A414F-1506-3144-8F40-016EA2BB7F30}"/>
+    <hyperlink ref="C501" r:id="rId500" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{6325E319-8FB2-AD44-8EC3-BE3DC6DF9876}"/>
+    <hyperlink ref="C502" r:id="rId501" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{51C86312-0076-2044-B7A4-A195E52783B9}"/>
+    <hyperlink ref="C503" r:id="rId502" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{949DB5A8-27B1-DB42-8F0F-B91B6D141C0E}"/>
+    <hyperlink ref="C504" r:id="rId503" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{1F6D236F-02EC-844A-8DD5-36009313B90E}"/>
+    <hyperlink ref="C505" r:id="rId504" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{5298A71B-1422-8349-8B21-24A8D540AADB}"/>
+    <hyperlink ref="C506" r:id="rId505" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{63DBC0CF-2505-B247-A887-EC0177410CEE}"/>
+    <hyperlink ref="C507" r:id="rId506" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{9FDC1CA5-E1BD-8447-9887-E44E92AA8E5F}"/>
+    <hyperlink ref="C508" r:id="rId507" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{E03D11DA-CC0D-664A-A7DB-9D06583E3FD1}"/>
+    <hyperlink ref="C509" r:id="rId508" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{A04371C0-1DBA-DA44-9B20-E5E8DE1EAB86}"/>
+    <hyperlink ref="C510" r:id="rId509" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{5C4658E5-C852-7849-9086-9E6D66385526}"/>
+    <hyperlink ref="C511" r:id="rId510" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{E045E6A5-BF6D-0C4B-9F96-441AFF6F180B}"/>
+    <hyperlink ref="C512" r:id="rId511" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{13022CE1-28D4-E044-B793-E8EA72F5E6E3}"/>
+    <hyperlink ref="C513" r:id="rId512" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{26E11118-D92D-F941-902E-84A4B7054AC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
